--- a/配表/波次表.xlsx
+++ b/配表/波次表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="WaveConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="255">
   <si>
     <t>序号</t>
   </si>
@@ -92,274 +92,706 @@
     <t>background</t>
   </si>
   <si>
-    <t>[[105],[105,105]]</t>
+    <t>[[1001,15,10,1]]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[[105],[105,105,106,106]]</t>
-  </si>
-  <si>
-    <t>[[208],[205],[209],[205]]</t>
-  </si>
-  <si>
-    <t>[[103],[105,105],[209],[105]]</t>
-  </si>
-  <si>
-    <t>[[108,205],[109],[205],[205]]</t>
+    <t>[[1001,20,10,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,10,1],[2001,7,11,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,16,11,1],[2001,8,11,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,11,1],[2001,8,12,1]]</t>
   </si>
   <si>
     <t>[21001,1,226,5]</t>
   </si>
   <si>
-    <t>[[1012,1012,1081,1021,1091]]</t>
-  </si>
-  <si>
-    <t>[[1012,1012,1021,1012,1091,1081]]</t>
-  </si>
-  <si>
-    <t>[[1012,1091,1021,1012,1091,1081]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1021,1051,1091,1081]]</t>
+    <t>[[1001,20,11,1],[2001,10,12,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,20,12,1],[2001,10,13,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,15,13,1],[3001,15,14,1],[7001,10,15,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,5,12,1],[2001,15,13,1],[3001,15,14,1],[7001,10,15,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,15,14,1],[4001,15,16,1],[7001,14,16,1]]</t>
   </si>
   <si>
     <t>[21002,1,800,5]</t>
   </si>
   <si>
-    <t>[[1012,1012,1051,1021,1012,1091,1081]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1021,1051,1081,1021,1021]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1051,1021,1012,1081,1091,1012]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1091,1021,1051,1081,1091,1012]]</t>
-  </si>
-  <si>
-    <t>[[1051,1051,1021,1091,1051,1091,1012,1051,1011]]</t>
+    <t>[[1001,10,13,1],[2001,10,14,1],[4001,10,16,1],[5001,8,16,1],[7001,12,16,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,15,15,1],[3001,10,15,1],[4001,10,17,1],[5001,10,16,1],[7001,10,17,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,13,1],[3001,15,15,1],[4001,10,17,1],[5001,10,17,1],[7001,10,17,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,14,1],[3001,10,16,1],[5001,10,17],[6001,12,17,1],[7001,18,18,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,14,1],[3001,15,16,1],[4001,10,18,1],[6001,10,17,1],[7001,15,18,1]]</t>
   </si>
   <si>
     <t>[22001,1,1000,5]</t>
   </si>
   <si>
-    <t>[[1012,1051,1021,1091,1051,1091,1012,1051,1011]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1051,1021,1091,1051,1091,1012,1051,1011]]</t>
-  </si>
-  <si>
-    <t>[[1051,1012,1051,1012,1051,1051,1021,1081,1012,1051]]</t>
-  </si>
-  <si>
-    <t>[[1012,1012,1021,1012,1051,1012,1021,1012,1051,1081,1081,1021]]</t>
-  </si>
-  <si>
-    <t>[[1051,1012,1021,1012,1012,1091,1051,1091,1051,1081,1051,1021]]</t>
+    <t>[[1001,10,15,1],[4001,15,18,1],[5001,15,19,1],[6001,8,18,1],[8001,12,20,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,5,16,1],[3001,15,17,1],[4001,10,18,1],[5001,10,19,1],[8001,25,20,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,16,1],[2001,10,16,1],[4001,10,18,1],[5001,10,19,1],[6001,10,18,1],[8001,15,20,1]]</t>
   </si>
   <si>
     <t>[22002,1,1000,5]</t>
   </si>
   <si>
-    <t>[[1051,1051,1012,1021,1091,1081,1091,1051,1021,1012,1091,1051,1041,1041]]</t>
-  </si>
-  <si>
-    <t>[[1051,1051,1021,1021,1081,1021,1021,1081,1081,1012,1051,1091,1012,1051]]</t>
-  </si>
-  <si>
-    <t>[[1051,1051,1051,1051,1012,1091,1081,1021,1021,1051,1091,1041,1041,1021,1091]]</t>
-  </si>
-  <si>
-    <t>[[1051,1012,1051,1051,1012,1081,1091,1021,1041,1012,1051,1051,1081,1012]]</t>
-  </si>
-  <si>
-    <t>[[1012,1012,1051,1012,1012,1091,1021,1091,1012,1021,1021,1012,1012,1041,1041,1021,1091]]</t>
+    <t>[[2001,10,16,1],[3001,15,17,1],[4001,10,19,1],[6001,10,19,1],[9001,15,21,1],[13001,10,21,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,10,17,1],[4001,15,19,1],[5001,10,20,1],[6001,10,19,1],[7001,7,20,1],[8001,8,21,1],[13001,10,21,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,17,1],[2001,10,17,1],[3001,10,18,1],[6001,10,20,1],[7001,10,20,1],[8001,10,21,1],[13001,10,22,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,17,1],[3001,10,18,1],[4001,15,20,1],[5001,10,20,1],[9001,15,21,1],[13001,10,22,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,18,1],[3001,15,19,1],[6001,10,20,1],[7001,8,21,1],[8001,17,22,1],[13001,10,23,1]]</t>
   </si>
   <si>
     <t>[23001,1,1500,5]</t>
   </si>
   <si>
-    <t>[[1051,1012,1051,1051,1091,1081,1051,1021,1091,1051,1041,1012,1041,1081,1081,1051,1091]]</t>
-  </si>
-  <si>
-    <t>[[1051,1051,1021,1051,1012,1012,1081,1051,1012,1021,1051,1041,1041,1051,1081,1081,1051]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1021,1012,1051,1051,1051,1021,1051,1051,1051,1021,1091,1021,1021,1091,1041,1012]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1101,1012,1081,1091,1012,1012,1012,1101,1101,1012,1041,1012,1101,1091,1101,1041]]</t>
-  </si>
-  <si>
-    <t>[[1012,1051,1101,1012,1081,1091,1081,1012,1012,1101,1101,1012,1041,1012,1101,1091,1101,1041]]</t>
+    <t>[[1001,15,18,1],[3001,15,20,1],[6001,10,21,1],[7001,8,21,1],[8001,17,22,1],[13001,10,23,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,19,1],[2001,10,18,1],[3001,15,20,1],[6001,10,21,1],[7001,10,22,1],[8001,10,23,1],[13001,15,24,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,10,19,1],[2001,15,18,1],[3001,10,21,1],[6001,10,22,1],[7001,10,22,1],[8001,10,23,1],[13001,15,24,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,20,1],[3001,10,21,1],[4001,15,20,1],[5001,15,21,1],[9001,20,22,1],[13001,10,25,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,20,1],[4001,15,21,1],[5001,15,21,1],[8001,10,24,1],[9001,10,22,1],[13001,10,25,1]]</t>
   </si>
   <si>
     <t>[23002,1,1500,5]</t>
   </si>
   <si>
-    <t>[[1051,1051,1012,1101,1081,1091,1101,1051,1021,1081,1051,1091,1091,1091,1012,1081,1101,1051,1011]]</t>
-  </si>
-  <si>
-    <t>[[1012,1101,1012,1091,1012,1021,1091,1091,1012,1101,1101,1021,1041,1101,1091,1041,1101,1091,1012,1091,1012]]</t>
-  </si>
-  <si>
-    <t>[[1012,1012,1021,1091,1081,1101,1012,1051,1021,1101,1081,1012,1021,1091,1012,1091,1012,1091,1041,1021]]</t>
-  </si>
-  <si>
-    <t>[[1051,1101,1021,1051,1051,1081,1021,1012,1012,1101,1012,1012,1051,1041,1041,1091,1081,1012,1101,1051,1081]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[1012,1012,1051,1051,1051,1051,1101,1051,1081,1081,1021,1021,1041,1101,1091,1041,1021,1012,1101,1051,1101]] </t>
+    <t>[[1001,15,20,1],[3001,10,22,1],[4001,15,21,1],[5001,15,22,1],[8001,10,24,1],[9001,10,23,1],[13001,10,25,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,20,1],[4001,15,22,1],[5001,15,22,1],[8001,10,25,1],[9001,10,23,1],[13001,10,25,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,15,19,1],[4001,15,22,1],[5001,10,23,1],[6001,10,22,1],[7001,10,23,1],[8001,15,25,1],[13001,15,26,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,15,19,1],[4001,15,23,1],[5001,10,23,1],[6001,10,23,1],[7001,10,23,1],[8001,15,26,1],[13001,15,26,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,15,20,1],[4001,15,23,1],[5001,10,24,1],[6001,10,23,1],[7001,10,24,1],[8001,15,26,1],[13001,15,27,1]]</t>
   </si>
   <si>
     <t>[24001,1,2500,5]</t>
   </si>
   <si>
-    <t>[[1101,1012,1101,1012,1051,1091,1012,1091,1091,1081,1051,1051,1041,1101,1081,1091,1091,1101,1081,1021,1051,1101]]</t>
-  </si>
-  <si>
-    <t>[[1101,1051,1012,1101,1081,1101,1101,1021,1012,1101,1012,1012,1021,1091,1021,1091,1091,1041,1051,1012,1101,1091]]</t>
-  </si>
-  <si>
-    <t>[[1012,1021,1012,1081,1012,1091,1081,1051,1012,1041,1101,1101,1081,1091,1041,1041,1021,1012,1091,1051,1051,1081,1051]]</t>
-  </si>
-  <si>
-    <t>[[1051,1101,1021,1101,1051,1101,1051,1051,1091,1021,1081,1101,1101,1041,1091,1081,1091,1012,1021,1051,1041,1012,1041]]</t>
-  </si>
-  <si>
-    <t>[[1012,1101,1012,1021,1021,1021,1012,1081,1081,1091,1012,1021,1091,1091,1081,1081,1091,1041,1101,1091,1081,1081,1101,1012]]</t>
+    <t>[[1001,20,22,1],[3001,15,23,1],[4001,20,24,1],[5001,15,24,1],[8001,10,27,1],[9001,10,24,1],[13001,10,27,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,20,22,1],[4001,20,24,1],[5001,15,25,1],[8001,10,27,1],[9001,10,24,1],[13001,10,28,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,20,20,1],[4001,15,25,1],[5001,15,25,1],[6001,10,24,1],[7001,10,24,1],[8001,15,28,1],[13001,15,28,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,20,21,1],[4001,15,25,1],[5001,15,26,1],[6001,10,24,1],[7001,10,25,1],[8001,15,28,1],[13001,20,29,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,20,21,1],[3001,15,24,1],[4001,15,26,1],[5001,15,26,1],[6001,10,25,1],[7001,10,25,1],[8001,15,29,1],[13001,20,29,1]]</t>
   </si>
   <si>
     <t>[24002,1,2500,5]</t>
   </si>
   <si>
+    <t>[[1001,20,23,1],[3001,15,24,1],[4001,20,26,1],[5001,15,27,1],[8001,10,29,1],[9001,10,25,1],[13001,10,30,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,20,23,1],[4001,20,27,1],[5001,15,27,1],[8001,10,30,1],[9001,10,25,1],[13001,10,30,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,20,22,1],[4001,15,27,1],[5001,15,28,1],[6001,10,25,1],[7001,10,26,1],[8001,15,30,1],[13001,15,31,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,20,22,1],[4001,15,28,1],[5001,15,28,1],[6001,10,26,1],[7001,10,26,1],[8001,15,31,1],[13001,20,31,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,20,23,1],[4001,15,28,1],[5001,15,29,1],[6001,10,26,1],[7001,10,27,1],[8001,15,31,1],[13001,20,32,1]]</t>
+  </si>
+  <si>
     <t>[25001,1,3500,5]</t>
   </si>
   <si>
+    <t>[[1001,20,24,1],[3001,20,25,1],[4001,25,29,1],[5001,20,29,1],[8001,10,32,1],[9001,10,26,1],[13001,10,32,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,25,24,1],[4001,25,29,1],[5001,20,30,1],[8001,10,32,1],[9001,10,26,1],[13001,10,33,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,25,23,1],[4001,25,30,1],[5001,15,30,1],[6001,15,27,1],[7001,10,27,1],[8001,15,33,1],[13001,15,33,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,25,24,1],[4001,20,30,1],[5001,20,31,1],[6001,10,27,1],[7001,10,28,1],[8001,15,33,1],[13001,20,34,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,25,24,1],[3001,20,26,1],[4001,20,31,1],[5001,25,31,1],[6001,10,28,1],[7001,10,28,1],[8001,15,34,1],[13001,20,34,1]]</t>
+  </si>
+  <si>
     <t>[25002,1,3500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,25,1],[3001,25,26,1],[4001,20,31,1],[5001,20,32,1],[8001,10,34,1],[9001,10,27,1],[13001,20,35,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,28,25,1],[4001,26,32,1],[5001,21,32,1],[8001,10,35,1],[9001,10,27,1],[13001,10,35,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,25,1],[4001,30,32,1],[5001,20,33,1],[6001,10,28,1],[7001,10,29,1],[8001,15,35,1],[13001,15,36,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,25,1],[4001,25,33,1],[5001,25,33,1],[6001,10,29,1],[7001,10,29,1],[8001,15,36,1],[13001,20,36,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,26,1],[3001,25,27,1],[4001,25,33,1],[5001,25,34,1],[6001,10,29,1],[7001,10,30,1],[8001,15,36,1],[13001,20,37,1]]</t>
+  </si>
+  <si>
     <t>[26001,1,5000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,26,1],[3001,30,27,1],[4001,25,34,1],[5001,15,34,1],[8001,15,37,1],[9001,10,28,1],[13001,20,37,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,33,26,1],[4001,31,34,1],[5001,16,35,1],[8001,10,37,1],[9001,10,28,1],[13001,10,38,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,26,1],[4001,35,35,1],[5001,25,35,1],[6001,10,30,1],[7001,10,30,1],[8001,15,38,1],[13001,15,38,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,27,1],[4001,30,35,1],[5001,30,36,1],[6001,10,30,1],[7001,10,31,1],[8001,15,38,1],[13001,20,39,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,27,1],[3001,30,28,1],[4001,30,36,1],[5001,30,36,1],[6001,10,31,1],[7001,10,31,1],[8001,15,39,1],[13001,20,39,1]]</t>
+  </si>
+  <si>
     <t>[26002,1,5000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,27,1],[3001,35,28,1],[4001,30,36,1],[5001,15,37,1],[8001,10,39,1],[9001,10,29,1],[13001,20,40,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,35,27,1],[4001,30,37,1],[5001,20,37,1],[8001,10,40,1],[9001,10,29,1],[13001,10,40,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,28,1],[4001,40,37,1],[5001,30,38,1],[6001,10,31,1],[7001,10,32,1],[8001,15,40,1],[13001,15,41,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,28,1],[4001,35,38,1],[5001,35,38,1],[6001,10,32,1],[7001,10,32,1],[8001,15,41,1],[13001,20,41,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,29,1],[3001,35,29,1],[4001,35,38,1],[5001,35,39,1],[6001,10,32,1],[7001,10,33,1],[8001,15,41,1],[13001,20,42,1]]</t>
+  </si>
+  <si>
     <t>[27001,1,7000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,28,1],[3001,35,29,1],[4001,35,39,1],[5001,15,39,1],[8001,10,42,1],[9001,10,30,1],[13001,20,42,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,40,28,1],[4001,35,39,1],[5001,20,40,1],[8001,10,42,1],[9001,10,30,1],[13001,10,43,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,29,1],[4001,45,40,1],[5001,35,40,1],[6001,10,33,1],[7001,10,33,1],[8001,15,43,1],[13001,15,43,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,30,1],[4001,40,40,1],[5001,40,41,1],[6001,10,33,1],[7001,10,34,1],[8001,15,43,1],[13001,20,44,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,30,1],[3001,40,30,1],[4001,40,41,1],[5001,40,41,1],[6001,10,34,1],[7001,10,34,1],[8001,15,44,1],[13001,20,44,1]]</t>
+  </si>
+  <si>
     <t>[27002,1,7000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,29,1],[3001,35,30,1],[4001,40,41,1],[5001,15,42,1],[8001,10,44,1],[9001,10,31,1],[13001,20,45,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,45,29,1],[4001,40,42,1],[5001,20,42,1],[8001,10,45,1],[9001,10,31,1],[13001,10,45,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,31,1],[4001,50,42,1],[5001,40,43,1],[6001,10,34,1],[7001,10,35,1],[8001,15,45,1],[13001,15,46,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,31,1],[4001,45,43,1],[5001,45,43,1],[6001,10,35,1],[7001,10,35,1],[8001,15,46,1],[13001,20,46,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,32,1],[3001,45,31,1],[4001,45,43,1],[5001,45,44,1],[6001,10,35,1],[7001,10,36,1],[8001,15,46,1],[13001,20,47,1]]</t>
+  </si>
+  <si>
     <t>[28001,1,9500,5]</t>
   </si>
   <si>
+    <t>[[1001,35,30,1],[3001,35,31,1],[4001,45,44,1],[5001,15,44,1],[8001,10,47,1],[9001,10,32,1],[13001,20,47,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,50,30,1],[4001,45,44,1],[5001,20,45,1],[8001,10,47,1],[9001,10,32,1],[13001,10,48,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,32,1],[4001,55,45,1],[5001,45,45,1],[6001,10,36,1],[7001,10,36,1],[8001,15,48,1],[13001,15,48,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,33,1],[4001,50,45,1],[5001,50,46,1],[6001,10,36,1],[7001,10,37,1],[8001,15,48,1],[13001,20,49,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,33,1],[3001,50,32,1],[4001,50,46,1],[5001,50,46,1],[6001,10,37,1],[7001,10,37,1],[8001,15,49,1],[13001,20,49,1]]</t>
+  </si>
+  <si>
     <t>[28002,1,9500,5]</t>
   </si>
   <si>
+    <t>[[1001,35,31,1],[3001,35,32,1],[4001,50,46,1],[5001,15,47,1],[8001,10,49,1],[9001,10,33,1],[13001,20,50,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,55,31,1],[4001,50,47,1],[5001,20,47,1],[8001,10,50,1],[9001,10,33,1],[13001,10,50,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,34,1],[4001,60,47,1],[5001,50,48,1],[6001,10,37,1],[7001,10,38,1],[8001,15,50,1],[13001,15,51,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,34,1],[4001,55,48,1],[5001,55,48,1],[6001,10,38,1],[7001,10,38,1],[8001,15,51,1],[13001,20,51,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,35,1],[3001,55,33,1],[4001,55,48,1],[5001,55,49,1],[6001,10,38,1],[7001,10,39,1],[8001,15,51,1],[13001,20,52,1]]</t>
+  </si>
+  <si>
     <t>[29001,1,12000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,32,1],[3001,35,33,1],[4001,55,49,1],[5001,15,49,1],[8001,10,52,1],[9001,10,34,1],[13001,20,52,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,60,32,1],[4001,55,49,1],[5001,20,50,1],[8001,10,52,1],[9001,10,34,1],[13001,10,53,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,35,1],[4001,65,50,1],[5001,55,50,1],[6001,10,39,1],[7001,10,39,1],[8001,15,53,1],[13001,15,53,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,36,1],[4001,60,50,1],[5001,60,51,1],[6001,10,39,1],[7001,10,40,1],[8001,15,53,1],[13001,20,54,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,36,1],[3001,60,34,1],[4001,60,51,1],[5001,60,51,1],[6001,10,40,1],[7001,10,40,1],[8001,15,54,1],[13001,20,54,1]]</t>
+  </si>
+  <si>
     <t>[29002,1,12000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,33,1],[3001,35,34,1],[4001,60,51,1],[5001,15,52,1],[8001,10,54,1],[9001,10,35,1],[13001,20,55,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,65,33,1],[4001,60,52,1],[5001,20,52,1],[8001,10,55,1],[9001,10,35,1],[13001,10,55,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,37,1],[4001,70,52,1],[5001,60,53,1],[6001,10,40,1],[7001,10,41,1],[8001,15,55,1],[13001,15,56,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,37,1],[4001,65,53,1],[5001,65,53,1],[6001,10,41,1],[7001,10,41,1],[8001,15,56,1],[13001,20,56,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,38,1],[3001,65,35,1],[4001,65,53,1],[5001,65,54,1],[6001,10,41,1],[7001,10,42,1],[8001,15,56,1],[13001,20,57,1]]</t>
+  </si>
+  <si>
     <t>[210001,1,15000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,34,1],[3001,35,35,1],[4001,65,54,1],[5001,15,54,1],[8001,10,57,1],[9001,10,36,1],[13001,20,57,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,70,34,1],[4001,65,54,1],[5001,20,55,1],[8001,10,57,1],[9001,10,36,1],[13001,10,58,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,38,1],[4001,75,55,1],[5001,65,55,1],[6001,10,42,1],[7001,10,42,1],[8001,15,58,1],[13001,15,58,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,39,1],[4001,70,55,1],[5001,70,56,1],[6001,10,42,1],[7001,10,43,1],[8001,15,58,1],[13001,20,59,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,39,1],[4001,70,56,1],[5001,70,56,1],[6001,10,43,1],[7001,10,43,1],[8001,15,59,1],[13001,20,59,1]]</t>
+  </si>
+  <si>
     <t>[210002,1,15000,5]</t>
   </si>
   <si>
+    <t>[[1001,35,35,1],[4001,70,56,1],[5001,15,57,1],[8001,10,59,1],[9001,10,37,1],[13001,20,60,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,75,35,1],[4001,70,57,1],[5001,20,57,1],[8001,10,60,1],[9001,10,37,1],[13001,10,60,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,40,1],[4001,80,57,1],[5001,70,58,1],[6001,10,43,1],[7001,10,44,1],[8001,15,60,1],[13001,15,61,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,40,1],[4001,75,58,1],[5001,75,58,1],[6001,10,44,1],[7001,10,44,1],[8001,15,61,1],[13001,20,61,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,41,1],[4001,75,58,1],[5001,75,59,1],[6001,10,44,1],[7001,10,45,1],[8001,15,61,1],[13001,20,62,1]]</t>
+  </si>
+  <si>
     <t>[21003,1,20000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,36,1],[4001,30,39,1],[5001,15,40,1],[8001,10,43,1],[9001,10,44,1],[13001,20,45,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,36,1],[4001,30,39,1],[5001,20,40,1],[8001,10,43,1],[9001,10,44,1],[13001,10,45,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,37,1],[4001,35,39,1],[5001,30,40,1],[6001,10,41,1],[7001,10,42,1],[8001,15,43,1],[13001,15,45,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,37,1],[4001,30,39,1],[5001,30,40,1],[6001,10,41,1],[7001,10,42,1],[8001,15,43,1],[13001,20,45,1]]</t>
+  </si>
+  <si>
     <t>[21004,1,800,5]</t>
   </si>
   <si>
+    <t>[[1001,30,37,1],[4001,30,40,1],[5001,15,41,1],[8001,10,44,1],[9001,10,45,1],[13001,20,46,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,37,1],[4001,30,40,1],[5001,20,41,1],[8001,10,44,1],[9001,10,45,1],[13001,10,46,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,38,1],[4001,35,40,1],[5001,30,41,1],[6001,10,42,1],[7001,10,43,1],[8001,15,44,1],[13001,15,46,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,38,1],[4001,30,40,1],[5001,30,41,1],[6001,10,42,1],[7001,10,43,1],[8001,15,44,1],[13001,20,46,1]]</t>
+  </si>
+  <si>
     <t>[22003,1,1000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,38,1],[4001,30,41,1],[5001,15,42,1],[8001,10,45,1],[9001,10,46,1],[13001,20,47,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,38,1],[4001,30,41,1],[5001,20,42,1],[8001,10,45,1],[9001,10,46,1],[13001,10,47,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,39,1],[4001,35,41,1],[5001,30,42,1],[6001,10,43,1],[7001,10,44,1],[8001,15,45,1],[13001,15,47,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,39,1],[4001,30,41,1],[5001,30,42,1],[6001,10,43,1],[7001,10,44,1],[8001,15,45,1],[13001,20,47,1]]</t>
+  </si>
+  <si>
     <t>[22004,1,1000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,39,1],[4001,30,42,1],[5001,15,43,1],[8001,10,46,1],[9001,10,47,1],[13001,20,48,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,39,1],[4001,30,42,1],[5001,20,43,1],[8001,10,46,1],[9001,10,47,1],[13001,10,48,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,40,1],[4001,35,42,1],[5001,30,43,1],[6001,10,44,1],[7001,10,45,1],[8001,15,46,1],[13001,15,48,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,40,1],[4001,30,42,1],[5001,30,43,1],[6001,10,44,1],[7001,10,45,1],[8001,15,46,1],[13001,20,48,1]]</t>
+  </si>
+  <si>
     <t>[23003,1,1500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,40,1],[4001,30,43,1],[5001,15,44,1],[8001,10,47,1],[9001,10,48,1],[13001,20,49,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,40,1],[4001,30,43,1],[5001,20,44,1],[8001,10,47,1],[9001,10,48,1],[13001,10,49,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,41,1],[4001,35,43,1],[5001,30,44,1],[6001,10,45,1],[7001,10,46,1],[8001,15,47,1],[13001,15,49,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,41,1],[4001,30,43,1],[5001,30,44,1],[6001,10,45,1],[7001,10,46,1],[8001,15,47,1],[13001,20,49,1]]</t>
+  </si>
+  <si>
     <t>[23004,1,1500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,41,1],[4001,30,44,1],[5001,15,45,1],[8001,10,48,1],[9001,10,49,1],[13001,20,50,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,41,1],[4001,30,44,1],[5001,20,45,1],[8001,10,48,1],[9001,10,49,1],[13001,10,50,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,42,1],[4001,35,44,1],[5001,30,45,1],[6001,10,46,1],[7001,10,47,1],[8001,15,48,1],[13001,15,50,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,42,1],[4001,30,44,1],[5001,30,45,1],[6001,10,46,1],[7001,10,47,1],[8001,15,48,1],[13001,20,50,1]]</t>
+  </si>
+  <si>
     <t>[24003,1,2500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,42,1],[4001,30,45,1],[5001,15,46,1],[8001,10,49,1],[9001,10,50,1],[13001,20,51,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,42,1],[4001,30,45,1],[5001,20,46,1],[8001,10,49,1],[9001,10,50,1],[13001,10,51,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,43,1],[4001,35,45,1],[5001,30,46,1],[6001,10,47,1],[7001,10,48,1],[8001,15,49,1],[13001,15,51,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,43,1],[4001,30,45,1],[5001,30,46,1],[6001,10,47,1],[7001,10,48,1],[8001,15,49,1],[13001,20,51,1]]</t>
+  </si>
+  <si>
     <t>[24004,1,2500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,43,1],[4001,30,46,1],[5001,15,47,1],[8001,10,50,1],[9001,10,51,1],[13001,20,52,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,43,1],[4001,30,46,1],[5001,20,47,1],[8001,10,50,1],[9001,10,51,1],[13001,10,52,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,44,1],[4001,35,46,1],[5001,30,47,1],[6001,10,48,1],[7001,10,49,1],[8001,15,50,1],[13001,15,52,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,44,1],[4001,30,46,1],[5001,30,47,1],[6001,10,48,1],[7001,10,49,1],[8001,15,50,1],[13001,20,52,1]]</t>
+  </si>
+  <si>
     <t>[25003,1,3500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,44,1],[4001,30,47,1],[5001,15,48,1],[8001,10,51,1],[9001,10,52,1],[13001,20,53,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,44,1],[4001,30,47,1],[5001,20,48,1],[8001,10,51,1],[9001,10,52,1],[13001,10,53,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,45,1],[4001,35,47,1],[5001,30,48,1],[6001,10,49,1],[7001,10,50,1],[8001,15,51,1],[13001,15,53,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,45,1],[4001,30,47,1],[5001,30,48,1],[6001,10,49,1],[7001,10,50,1],[8001,15,51,1],[13001,20,53,1]]</t>
+  </si>
+  <si>
     <t>[25004,1,3500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,45,1],[4001,30,48,1],[5001,15,49,1],[8001,10,52,1],[9001,10,53,1],[13001,20,54,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,45,1],[4001,30,48,1],[5001,20,49,1],[8001,10,52,1],[9001,10,53,1],[13001,10,54,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,46,1],[4001,35,48,1],[5001,30,49,1],[6001,10,50,1],[7001,10,51,1],[8001,15,52,1],[13001,15,54,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,46,1],[4001,30,48,1],[5001,30,49,1],[6001,10,50,1],[7001,10,51,1],[8001,15,52,1],[13001,20,54,1]]</t>
+  </si>
+  <si>
     <t>[26003,1,5000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,46,1],[4001,30,49,1],[5001,15,50,1],[8001,10,53,1],[9001,10,54,1],[13001,20,55,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,46,1],[4001,30,49,1],[5001,20,50,1],[8001,10,53,1],[9001,10,54,1],[13001,10,55,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,47,1],[4001,35,49,1],[5001,30,50,1],[6001,10,51,1],[7001,10,52,1],[8001,15,53,1],[13001,15,55,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,47,1],[4001,30,49,1],[5001,30,50,1],[6001,10,51,1],[7001,10,52,1],[8001,15,53,1],[13001,20,55,1]]</t>
+  </si>
+  <si>
     <t>[26004,1,5000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,47,1],[4001,30,50,1],[5001,15,51,1],[8001,10,54,1],[9001,10,55,1],[13001,20,56,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,47,1],[4001,30,50,1],[5001,20,51,1],[8001,10,54,1],[9001,10,55,1],[13001,10,56,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,48,1],[4001,35,50,1],[5001,30,51,1],[6001,10,52,1],[7001,10,53,1],[8001,15,54,1],[13001,15,56,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,48,1],[4001,30,50,1],[5001,30,51,1],[6001,10,52,1],[7001,10,53,1],[8001,15,54,1],[13001,20,56,1]]</t>
+  </si>
+  <si>
     <t>[27003,1,7000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,48,1],[4001,30,51,1],[5001,15,52,1],[8001,10,55,1],[9001,10,56,1],[13001,20,57,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,48,1],[4001,30,51,1],[5001,20,52,1],[8001,10,55,1],[9001,10,56,1],[13001,10,57,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,49,1],[4001,35,51,1],[5001,30,52,1],[6001,10,53,1],[7001,10,54,1],[8001,15,55,1],[13001,15,57,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,49,1],[4001,30,51,1],[5001,30,52,1],[6001,10,53,1],[7001,10,54,1],[8001,15,55,1],[13001,20,57,1]]</t>
+  </si>
+  <si>
     <t>[27004,1,7000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,49,1],[4001,30,52,1],[5001,15,53,1],[8001,10,56,1],[9001,10,57,1],[13001,20,58,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,49,1],[4001,30,52,1],[5001,20,53,1],[8001,10,56,1],[9001,10,57,1],[13001,10,58,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,50,1],[4001,35,52,1],[5001,30,53,1],[6001,10,54,1],[7001,10,55,1],[8001,15,56,1],[13001,15,58,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,50,1],[4001,30,52,1],[5001,30,53,1],[6001,10,54,1],[7001,10,55,1],[8001,15,56,1],[13001,20,58,1]]</t>
+  </si>
+  <si>
     <t>[28003,1,9500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,50,1],[4001,30,53,1],[5001,15,54,1],[8001,10,57,1],[9001,10,58,1],[13001,20,59,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,50,1],[4001,30,53,1],[5001,20,54,1],[8001,10,57,1],[9001,10,58,1],[13001,10,59,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,51,1],[4001,35,53,1],[5001,30,54,1],[6001,10,55,1],[7001,10,56,1],[8001,15,57,1],[13001,15,59,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,51,1],[4001,30,53,1],[5001,30,54,1],[6001,10,55,1],[7001,10,56,1],[8001,15,57,1],[13001,20,59,1]]</t>
+  </si>
+  <si>
     <t>[28004,1,9500,5]</t>
   </si>
   <si>
+    <t>[[1001,30,51,1],[4001,30,54,1],[5001,15,55,1],[8001,10,58,1],[9001,10,59,1],[13001,20,60,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,51,1],[4001,30,54,1],[5001,20,55,1],[8001,10,58,1],[9001,10,59,1],[13001,10,60,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,52,1],[4001,35,54,1],[5001,30,55,1],[6001,10,56,1],[7001,10,57,1],[8001,15,58,1],[13001,15,60,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,52,1],[4001,30,54,1],[5001,30,55,1],[6001,10,56,1],[7001,10,57,1],[8001,15,58,1],[13001,20,60,1]]</t>
+  </si>
+  <si>
     <t>[29003,1,12000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,52,1],[4001,30,55,1],[5001,15,56,1],[8001,10,59,1],[9001,10,60,1],[13001,20,61,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,52,1],[4001,30,55,1],[5001,20,56,1],[8001,10,59,1],[9001,10,60,1],[13001,10,61,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,53,1],[4001,35,55,1],[5001,30,56,1],[6001,10,57,1],[7001,10,58,1],[8001,15,59,1],[13001,15,61,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,53,1],[4001,30,55,1],[5001,30,56,1],[6001,10,57,1],[7001,10,58,1],[8001,15,59,1],[13001,20,61,1]]</t>
+  </si>
+  <si>
     <t>[29004,1,12000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,53,1],[4001,30,56,1],[5001,15,57,1],[8001,10,60,1],[9001,10,61,1],[13001,20,62,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,53,1],[4001,30,56,1],[5001,20,57,1],[8001,10,60,1],[9001,10,61,1],[13001,10,62,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,54,1],[4001,35,56,1],[5001,30,57,1],[6001,10,58,1],[7001,10,59,1],[8001,15,60,1],[13001,15,62,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,54,1],[4001,30,56,1],[5001,30,57,1],[6001,10,58,1],[7001,10,59,1],[8001,15,60,1],[13001,20,62,1]]</t>
+  </si>
+  <si>
     <t>[210003,1,15000,5]</t>
   </si>
   <si>
+    <t>[[1001,30,54,1],[4001,30,57,1],[5001,15,58,1],[8001,10,61,1],[9001,10,62,1],[13001,20,63,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,54,1],[4001,30,57,1],[5001,20,58,1],[8001,10,61,1],[9001,10,62,1],[13001,10,63,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,55,1],[4001,35,57,1],[5001,30,58,1],[6001,10,59,1],[7001,10,60,1],[8001,15,61,1],[13001,15,63,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,55,1],[4001,30,57,1],[5001,30,58,1],[6001,10,59,1],[7001,10,60,1],[8001,15,61,1],[13001,20,63,1]]</t>
+  </si>
+  <si>
     <t>[210004,1,15000,5]</t>
   </si>
   <si>
-    <t>[[[[31001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[32001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[33001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[34001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[35001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[36001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[37001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[38001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[39001,1,0]]]]</t>
-  </si>
-  <si>
-    <t>[[[[310001,1,0]]]]</t>
+    <t>[[1001,30,55,1],[4001,30,58,1],[5001,15,59,1],[8001,10,62,1],[9001,10,63,1],[13001,20,64,1]]</t>
+  </si>
+  <si>
+    <t>[[1001,30,55,1],[4001,30,58,1],[5001,20,59,1],[8001,10,62,1],[9001,10,63,1],[13001,10,64,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,56,1],[4001,35,58,1],[5001,30,59,1],[6001,10,60,1],[7001,10,61,1],[8001,15,62,1],[13001,15,64,1]]</t>
+  </si>
+  <si>
+    <t>[[2001,30,56,1],[4001,30,58,1],[5001,30,59,1],[6001,10,60,1],[7001,10,61,1],[8001,15,62,1],[13001,20,64,1]]</t>
+  </si>
+  <si>
+    <t>[[31001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[32001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[33001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[34001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[35001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[36001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[37001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[38001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[39001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[310001,1,0]]</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1980,7 @@
   <dimension ref="A1:J250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1556,7 +1988,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="92.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="97.35" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
@@ -1672,7 +2104,7 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1695,7 +2127,7 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1718,7 +2150,7 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1741,7 +2173,7 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1764,7 +2196,7 @@
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1787,7 +2219,7 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1810,7 +2242,7 @@
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1833,8 +2265,8 @@
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
+      <c r="D13" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -1856,8 +2288,8 @@
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1879,11 +2311,11 @@
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
+      <c r="D15" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1902,8 +2334,8 @@
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
+      <c r="D16" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1925,8 +2357,8 @@
       <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
+      <c r="D17" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1948,8 +2380,8 @@
       <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -1971,8 +2403,8 @@
       <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
+      <c r="D19" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -1994,11 +2426,11 @@
       <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
+      <c r="D20" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -2017,8 +2449,8 @@
       <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
+      <c r="D21" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -2040,7 +2472,7 @@
       <c r="B22" s="2">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2063,8 +2495,8 @@
       <c r="B23" s="2">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
+      <c r="D23" t="s">
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -2086,8 +2518,8 @@
       <c r="B24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
+      <c r="D24" t="s">
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -2109,11 +2541,11 @@
       <c r="B25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2132,8 +2564,8 @@
       <c r="B26" s="2">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
+      <c r="D26" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -2155,8 +2587,8 @@
       <c r="B27" s="2">
         <v>22</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
+      <c r="D27" t="s">
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -2178,8 +2610,8 @@
       <c r="B28" s="2">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
+      <c r="D28" t="s">
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
@@ -2201,8 +2633,8 @@
       <c r="B29" s="2">
         <v>24</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>48</v>
+      <c r="D29" t="s">
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
@@ -2225,11 +2657,11 @@
         <v>25</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -2248,8 +2680,8 @@
       <c r="B31" s="2">
         <v>26</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -2271,8 +2703,8 @@
       <c r="B32" s="2">
         <v>27</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>52</v>
+      <c r="D32" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -2294,8 +2726,8 @@
       <c r="B33" s="2">
         <v>28</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>53</v>
+      <c r="D33" t="s">
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -2317,8 +2749,8 @@
       <c r="B34" s="2">
         <v>29</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>54</v>
+      <c r="D34" t="s">
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -2340,11 +2772,11 @@
       <c r="B35" s="2">
         <v>30</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -2363,8 +2795,8 @@
       <c r="B36" s="2">
         <v>31</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>57</v>
+      <c r="D36" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
@@ -2386,8 +2818,8 @@
       <c r="B37" s="2">
         <v>32</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>58</v>
+      <c r="D37" t="s">
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
@@ -2409,8 +2841,8 @@
       <c r="B38" s="2">
         <v>33</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
+      <c r="D38" t="s">
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
@@ -2432,8 +2864,8 @@
       <c r="B39" s="2">
         <v>34</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>60</v>
+      <c r="D39" t="s">
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -2455,11 +2887,11 @@
       <c r="B40" s="2">
         <v>35</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -2478,8 +2910,8 @@
       <c r="B41" s="2">
         <v>36</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
+      <c r="D41" t="s">
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -2501,8 +2933,8 @@
       <c r="B42" s="2">
         <v>37</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>64</v>
+      <c r="D42" t="s">
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -2524,8 +2956,8 @@
       <c r="B43" s="2">
         <v>38</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>65</v>
+      <c r="D43" t="s">
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -2547,8 +2979,8 @@
       <c r="B44" s="2">
         <v>39</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>66</v>
+      <c r="D44" t="s">
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
@@ -2570,11 +3002,11 @@
       <c r="B45" s="2">
         <v>40</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
@@ -2593,8 +3025,8 @@
       <c r="B46" s="2">
         <v>41</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>67</v>
+      <c r="D46" t="s">
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
@@ -2616,8 +3048,8 @@
       <c r="B47" s="2">
         <v>42</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>67</v>
+      <c r="D47" t="s">
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
@@ -2639,8 +3071,8 @@
       <c r="B48" s="2">
         <v>43</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>67</v>
+      <c r="D48" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
@@ -2662,8 +3094,8 @@
       <c r="B49" s="2">
         <v>44</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
+      <c r="D49" t="s">
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -2686,11 +3118,11 @@
         <v>45</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="2" t="s">
-        <v>67</v>
+      <c r="D50" t="s">
+        <v>72</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -2709,8 +3141,8 @@
       <c r="B51" s="2">
         <v>46</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>67</v>
+      <c r="D51" t="s">
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -2732,8 +3164,8 @@
       <c r="B52" s="2">
         <v>47</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>67</v>
+      <c r="D52" t="s">
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -2755,8 +3187,8 @@
       <c r="B53" s="2">
         <v>48</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>67</v>
+      <c r="D53" t="s">
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -2778,8 +3210,8 @@
       <c r="B54" s="2">
         <v>49</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>67</v>
+      <c r="D54" t="s">
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
@@ -2801,11 +3233,11 @@
       <c r="B55" s="2">
         <v>50</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>67</v>
+      <c r="D55" t="s">
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -2824,8 +3256,8 @@
       <c r="B56" s="2">
         <v>51</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>67</v>
+      <c r="D56" t="s">
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -2847,8 +3279,8 @@
       <c r="B57" s="2">
         <v>52</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>67</v>
+      <c r="D57" t="s">
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -2870,8 +3302,8 @@
       <c r="B58" s="2">
         <v>53</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>67</v>
+      <c r="D58" t="s">
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -2893,8 +3325,8 @@
       <c r="B59" s="2">
         <v>54</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>67</v>
+      <c r="D59" t="s">
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
@@ -2916,11 +3348,11 @@
       <c r="B60" s="2">
         <v>55</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>67</v>
+      <c r="D60" t="s">
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -2939,8 +3371,8 @@
       <c r="B61" s="2">
         <v>56</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>67</v>
+      <c r="D61" t="s">
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
@@ -2962,8 +3394,8 @@
       <c r="B62" s="2">
         <v>57</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>67</v>
+      <c r="D62" t="s">
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
@@ -2985,8 +3417,8 @@
       <c r="B63" s="2">
         <v>58</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>67</v>
+      <c r="D63" t="s">
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
@@ -3008,8 +3440,8 @@
       <c r="B64" s="2">
         <v>59</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>67</v>
+      <c r="D64" t="s">
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
@@ -3031,11 +3463,11 @@
       <c r="B65" s="2">
         <v>60</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>67</v>
+      <c r="D65" t="s">
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3054,8 +3486,8 @@
       <c r="B66" s="2">
         <v>61</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>67</v>
+      <c r="D66" t="s">
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>22</v>
@@ -3077,8 +3509,8 @@
       <c r="B67" s="2">
         <v>62</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>67</v>
+      <c r="D67" t="s">
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>22</v>
@@ -3100,8 +3532,8 @@
       <c r="B68" s="2">
         <v>63</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>67</v>
+      <c r="D68" t="s">
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>22</v>
@@ -3123,8 +3555,8 @@
       <c r="B69" s="2">
         <v>64</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>67</v>
+      <c r="D69" t="s">
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>22</v>
@@ -3146,11 +3578,11 @@
       <c r="B70" s="2">
         <v>65</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>67</v>
+      <c r="D70" t="s">
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -3169,8 +3601,8 @@
       <c r="B71" s="2">
         <v>66</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>67</v>
+      <c r="D71" t="s">
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>22</v>
@@ -3192,8 +3624,8 @@
       <c r="B72" s="2">
         <v>67</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>67</v>
+      <c r="D72" t="s">
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -3215,8 +3647,8 @@
       <c r="B73" s="2">
         <v>68</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>67</v>
+      <c r="D73" t="s">
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>22</v>
@@ -3238,8 +3670,8 @@
       <c r="B74" s="2">
         <v>69</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>67</v>
+      <c r="D74" t="s">
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
@@ -3261,11 +3693,11 @@
       <c r="B75" s="2">
         <v>70</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>67</v>
+      <c r="D75" t="s">
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
@@ -3284,8 +3716,8 @@
       <c r="B76" s="2">
         <v>71</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>67</v>
+      <c r="D76" t="s">
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
@@ -3307,8 +3739,8 @@
       <c r="B77" s="2">
         <v>72</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>67</v>
+      <c r="D77" t="s">
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>22</v>
@@ -3330,8 +3762,8 @@
       <c r="B78" s="2">
         <v>73</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>67</v>
+      <c r="D78" t="s">
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>22</v>
@@ -3353,8 +3785,8 @@
       <c r="B79" s="2">
         <v>74</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>67</v>
+      <c r="D79" t="s">
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -3376,11 +3808,11 @@
       <c r="B80" s="2">
         <v>75</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>67</v>
+      <c r="D80" t="s">
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -3399,8 +3831,8 @@
       <c r="B81" s="2">
         <v>76</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>67</v>
+      <c r="D81" t="s">
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>22</v>
@@ -3422,8 +3854,8 @@
       <c r="B82" s="2">
         <v>77</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>67</v>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>22</v>
@@ -3445,8 +3877,8 @@
       <c r="B83" s="2">
         <v>78</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>67</v>
+      <c r="D83" t="s">
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>22</v>
@@ -3468,8 +3900,8 @@
       <c r="B84" s="2">
         <v>79</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>67</v>
+      <c r="D84" t="s">
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>22</v>
@@ -3491,11 +3923,11 @@
       <c r="B85" s="2">
         <v>80</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>67</v>
+      <c r="D85" t="s">
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
@@ -3514,8 +3946,8 @@
       <c r="B86" s="2">
         <v>81</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>67</v>
+      <c r="D86" t="s">
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>22</v>
@@ -3537,8 +3969,8 @@
       <c r="B87" s="2">
         <v>82</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>67</v>
+      <c r="D87" t="s">
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>22</v>
@@ -3560,8 +3992,8 @@
       <c r="B88" s="2">
         <v>83</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>67</v>
+      <c r="D88" t="s">
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>22</v>
@@ -3583,8 +4015,8 @@
       <c r="B89" s="2">
         <v>84</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>67</v>
+      <c r="D89" t="s">
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>22</v>
@@ -3606,11 +4038,11 @@
       <c r="B90" s="2">
         <v>85</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>67</v>
+      <c r="D90" t="s">
+        <v>120</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
@@ -3629,8 +4061,8 @@
       <c r="B91" s="2">
         <v>86</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>67</v>
+      <c r="D91" t="s">
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>22</v>
@@ -3652,8 +4084,8 @@
       <c r="B92" s="2">
         <v>87</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>67</v>
+      <c r="D92" t="s">
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>22</v>
@@ -3675,8 +4107,8 @@
       <c r="B93" s="2">
         <v>88</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>67</v>
+      <c r="D93" t="s">
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>22</v>
@@ -3698,8 +4130,8 @@
       <c r="B94" s="2">
         <v>89</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>67</v>
+      <c r="D94" t="s">
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>22</v>
@@ -3721,11 +4153,11 @@
       <c r="B95" s="2">
         <v>90</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>67</v>
+      <c r="D95" t="s">
+        <v>126</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
@@ -3744,8 +4176,8 @@
       <c r="B96" s="2">
         <v>91</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>67</v>
+      <c r="D96" t="s">
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>22</v>
@@ -3767,8 +4199,8 @@
       <c r="B97" s="2">
         <v>92</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>67</v>
+      <c r="D97" t="s">
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>22</v>
@@ -3790,8 +4222,8 @@
       <c r="B98" s="2">
         <v>93</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>67</v>
+      <c r="D98" t="s">
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>22</v>
@@ -3813,8 +4245,8 @@
       <c r="B99" s="2">
         <v>94</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>67</v>
+      <c r="D99" t="s">
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>22</v>
@@ -3836,11 +4268,11 @@
       <c r="B100" s="2">
         <v>95</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>67</v>
+      <c r="D100" t="s">
+        <v>132</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
@@ -3859,8 +4291,8 @@
       <c r="B101" s="2">
         <v>96</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>67</v>
+      <c r="D101" t="s">
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>22</v>
@@ -3882,8 +4314,8 @@
       <c r="B102" s="2">
         <v>97</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>67</v>
+      <c r="D102" t="s">
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>22</v>
@@ -3905,8 +4337,8 @@
       <c r="B103" s="2">
         <v>98</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>67</v>
+      <c r="D103" t="s">
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>22</v>
@@ -3928,8 +4360,8 @@
       <c r="B104" s="2">
         <v>99</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>67</v>
+      <c r="D104" t="s">
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>22</v>
@@ -3951,11 +4383,11 @@
       <c r="B105" s="2">
         <v>100</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>67</v>
+      <c r="D105" t="s">
+        <v>138</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
@@ -3974,8 +4406,8 @@
       <c r="B106" s="2">
         <v>101</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>67</v>
+      <c r="D106" t="s">
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>22</v>
@@ -3997,8 +4429,8 @@
       <c r="B107" s="2">
         <v>102</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>67</v>
+      <c r="D107" t="s">
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>22</v>
@@ -4020,8 +4452,8 @@
       <c r="B108" s="2">
         <v>103</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>67</v>
+      <c r="D108" t="s">
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>22</v>
@@ -4043,8 +4475,8 @@
       <c r="B109" s="2">
         <v>104</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>67</v>
+      <c r="D109" t="s">
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>22</v>
@@ -4066,11 +4498,11 @@
       <c r="B110" s="2">
         <v>105</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>67</v>
+      <c r="D110" t="s">
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
@@ -4089,8 +4521,8 @@
       <c r="B111" s="2">
         <v>106</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>67</v>
+      <c r="D111" t="s">
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>22</v>
@@ -4112,8 +4544,8 @@
       <c r="B112" s="2">
         <v>107</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>67</v>
+      <c r="D112" t="s">
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>22</v>
@@ -4135,8 +4567,8 @@
       <c r="B113" s="2">
         <v>108</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>67</v>
+      <c r="D113" t="s">
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>22</v>
@@ -4158,8 +4590,8 @@
       <c r="B114" s="2">
         <v>109</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>67</v>
+      <c r="D114" t="s">
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>22</v>
@@ -4181,11 +4613,11 @@
       <c r="B115" s="2">
         <v>110</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>67</v>
+      <c r="D115" t="s">
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
@@ -4204,8 +4636,8 @@
       <c r="B116" s="2">
         <v>111</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>67</v>
+      <c r="D116" t="s">
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>22</v>
@@ -4227,8 +4659,8 @@
       <c r="B117" s="2">
         <v>112</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>67</v>
+      <c r="D117" t="s">
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>22</v>
@@ -4250,8 +4682,8 @@
       <c r="B118" s="2">
         <v>113</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>67</v>
+      <c r="D118" t="s">
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>22</v>
@@ -4273,8 +4705,8 @@
       <c r="B119" s="2">
         <v>114</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>67</v>
+      <c r="D119" t="s">
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>22</v>
@@ -4296,11 +4728,11 @@
       <c r="B120" s="2">
         <v>115</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>67</v>
+      <c r="D120" t="s">
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
@@ -4319,8 +4751,8 @@
       <c r="B121" s="2">
         <v>116</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>67</v>
+      <c r="D121" t="s">
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>22</v>
@@ -4342,8 +4774,8 @@
       <c r="B122" s="2">
         <v>117</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>67</v>
+      <c r="D122" t="s">
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>22</v>
@@ -4365,8 +4797,8 @@
       <c r="B123" s="2">
         <v>118</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>67</v>
+      <c r="D123" t="s">
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>22</v>
@@ -4388,8 +4820,8 @@
       <c r="B124" s="2">
         <v>119</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>67</v>
+      <c r="D124" t="s">
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>22</v>
@@ -4411,11 +4843,11 @@
       <c r="B125" s="2">
         <v>120</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>67</v>
+      <c r="D125" t="s">
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
@@ -4434,8 +4866,8 @@
       <c r="B126" s="2">
         <v>121</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>67</v>
+      <c r="D126" t="s">
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>22</v>
@@ -4457,8 +4889,8 @@
       <c r="B127" s="2">
         <v>122</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>67</v>
+      <c r="D127" t="s">
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>22</v>
@@ -4480,8 +4912,8 @@
       <c r="B128" s="2">
         <v>123</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>67</v>
+      <c r="D128" t="s">
+        <v>163</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>22</v>
@@ -4503,8 +4935,8 @@
       <c r="B129" s="2">
         <v>124</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>67</v>
+      <c r="D129" t="s">
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>22</v>
@@ -4526,11 +4958,11 @@
       <c r="B130" s="2">
         <v>125</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>67</v>
+      <c r="D130" t="s">
+        <v>164</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
@@ -4549,8 +4981,8 @@
       <c r="B131" s="2">
         <v>126</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>67</v>
+      <c r="D131" t="s">
+        <v>166</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>22</v>
@@ -4572,8 +5004,8 @@
       <c r="B132" s="2">
         <v>127</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>67</v>
+      <c r="D132" t="s">
+        <v>167</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>22</v>
@@ -4595,8 +5027,8 @@
       <c r="B133" s="2">
         <v>128</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>67</v>
+      <c r="D133" t="s">
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>22</v>
@@ -4618,8 +5050,8 @@
       <c r="B134" s="2">
         <v>129</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>67</v>
+      <c r="D134" t="s">
+        <v>169</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>22</v>
@@ -4641,11 +5073,11 @@
       <c r="B135" s="2">
         <v>130</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>67</v>
+      <c r="D135" t="s">
+        <v>169</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
@@ -4664,8 +5096,8 @@
       <c r="B136" s="2">
         <v>131</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>67</v>
+      <c r="D136" t="s">
+        <v>171</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>22</v>
@@ -4687,8 +5119,8 @@
       <c r="B137" s="2">
         <v>132</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>67</v>
+      <c r="D137" t="s">
+        <v>172</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>22</v>
@@ -4710,8 +5142,8 @@
       <c r="B138" s="2">
         <v>133</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>67</v>
+      <c r="D138" t="s">
+        <v>173</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>22</v>
@@ -4733,8 +5165,8 @@
       <c r="B139" s="2">
         <v>134</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>67</v>
+      <c r="D139" t="s">
+        <v>174</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>22</v>
@@ -4756,11 +5188,11 @@
       <c r="B140" s="2">
         <v>135</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>67</v>
+      <c r="D140" t="s">
+        <v>174</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
@@ -4779,8 +5211,8 @@
       <c r="B141" s="2">
         <v>136</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>67</v>
+      <c r="D141" t="s">
+        <v>176</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>22</v>
@@ -4802,8 +5234,8 @@
       <c r="B142" s="2">
         <v>137</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>67</v>
+      <c r="D142" t="s">
+        <v>177</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>22</v>
@@ -4825,8 +5257,8 @@
       <c r="B143" s="2">
         <v>138</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>67</v>
+      <c r="D143" t="s">
+        <v>178</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>22</v>
@@ -4848,8 +5280,8 @@
       <c r="B144" s="2">
         <v>139</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>67</v>
+      <c r="D144" t="s">
+        <v>179</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>22</v>
@@ -4871,11 +5303,11 @@
       <c r="B145" s="2">
         <v>140</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>67</v>
+      <c r="D145" t="s">
+        <v>179</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
@@ -4894,8 +5326,8 @@
       <c r="B146" s="2">
         <v>141</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>67</v>
+      <c r="D146" t="s">
+        <v>181</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>22</v>
@@ -4917,8 +5349,8 @@
       <c r="B147" s="2">
         <v>142</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>67</v>
+      <c r="D147" t="s">
+        <v>182</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>22</v>
@@ -4940,8 +5372,8 @@
       <c r="B148" s="2">
         <v>143</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>67</v>
+      <c r="D148" t="s">
+        <v>183</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>22</v>
@@ -4963,8 +5395,8 @@
       <c r="B149" s="2">
         <v>144</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>67</v>
+      <c r="D149" t="s">
+        <v>184</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>22</v>
@@ -4986,11 +5418,11 @@
       <c r="B150" s="2">
         <v>145</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>67</v>
+      <c r="D150" t="s">
+        <v>184</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
@@ -5009,8 +5441,8 @@
       <c r="B151" s="2">
         <v>146</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>67</v>
+      <c r="D151" t="s">
+        <v>186</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>22</v>
@@ -5032,8 +5464,8 @@
       <c r="B152" s="2">
         <v>147</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>67</v>
+      <c r="D152" t="s">
+        <v>187</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>22</v>
@@ -5055,8 +5487,8 @@
       <c r="B153" s="2">
         <v>148</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>67</v>
+      <c r="D153" t="s">
+        <v>188</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>22</v>
@@ -5078,8 +5510,8 @@
       <c r="B154" s="2">
         <v>149</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>67</v>
+      <c r="D154" t="s">
+        <v>189</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>22</v>
@@ -5101,11 +5533,11 @@
       <c r="B155" s="2">
         <v>150</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>67</v>
+      <c r="D155" t="s">
+        <v>189</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
@@ -5124,8 +5556,8 @@
       <c r="B156" s="2">
         <v>151</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>67</v>
+      <c r="D156" t="s">
+        <v>191</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>22</v>
@@ -5147,8 +5579,8 @@
       <c r="B157" s="2">
         <v>152</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>67</v>
+      <c r="D157" t="s">
+        <v>192</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>22</v>
@@ -5170,8 +5602,8 @@
       <c r="B158" s="2">
         <v>153</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>67</v>
+      <c r="D158" t="s">
+        <v>193</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>22</v>
@@ -5193,8 +5625,8 @@
       <c r="B159" s="2">
         <v>154</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>67</v>
+      <c r="D159" t="s">
+        <v>194</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>22</v>
@@ -5216,11 +5648,11 @@
       <c r="B160" s="2">
         <v>155</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>67</v>
+      <c r="D160" t="s">
+        <v>194</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
@@ -5239,8 +5671,8 @@
       <c r="B161" s="2">
         <v>156</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>67</v>
+      <c r="D161" t="s">
+        <v>196</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>22</v>
@@ -5262,8 +5694,8 @@
       <c r="B162" s="2">
         <v>157</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>67</v>
+      <c r="D162" t="s">
+        <v>197</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>22</v>
@@ -5285,8 +5717,8 @@
       <c r="B163" s="2">
         <v>158</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>67</v>
+      <c r="D163" t="s">
+        <v>198</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>22</v>
@@ -5308,8 +5740,8 @@
       <c r="B164" s="2">
         <v>159</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>67</v>
+      <c r="D164" t="s">
+        <v>199</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>22</v>
@@ -5331,11 +5763,11 @@
       <c r="B165" s="2">
         <v>160</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>67</v>
+      <c r="D165" t="s">
+        <v>199</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
@@ -5354,8 +5786,8 @@
       <c r="B166" s="2">
         <v>161</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>67</v>
+      <c r="D166" t="s">
+        <v>201</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>22</v>
@@ -5377,8 +5809,8 @@
       <c r="B167" s="2">
         <v>162</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>67</v>
+      <c r="D167" t="s">
+        <v>202</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>22</v>
@@ -5400,8 +5832,8 @@
       <c r="B168" s="2">
         <v>163</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>67</v>
+      <c r="D168" t="s">
+        <v>203</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>22</v>
@@ -5423,8 +5855,8 @@
       <c r="B169" s="2">
         <v>164</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>67</v>
+      <c r="D169" t="s">
+        <v>204</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>22</v>
@@ -5446,11 +5878,11 @@
       <c r="B170" s="2">
         <v>165</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>67</v>
+      <c r="D170" t="s">
+        <v>204</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
@@ -5469,8 +5901,8 @@
       <c r="B171" s="2">
         <v>166</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>67</v>
+      <c r="D171" t="s">
+        <v>206</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>22</v>
@@ -5492,8 +5924,8 @@
       <c r="B172" s="2">
         <v>167</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>67</v>
+      <c r="D172" t="s">
+        <v>207</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>22</v>
@@ -5515,8 +5947,8 @@
       <c r="B173" s="2">
         <v>168</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>67</v>
+      <c r="D173" t="s">
+        <v>208</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>22</v>
@@ -5538,8 +5970,8 @@
       <c r="B174" s="2">
         <v>169</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>67</v>
+      <c r="D174" t="s">
+        <v>209</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>22</v>
@@ -5561,11 +5993,11 @@
       <c r="B175" s="2">
         <v>170</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>67</v>
+      <c r="D175" t="s">
+        <v>209</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="F175" s="2">
         <v>1</v>
@@ -5584,8 +6016,8 @@
       <c r="B176" s="2">
         <v>171</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>67</v>
+      <c r="D176" t="s">
+        <v>211</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>22</v>
@@ -5607,8 +6039,8 @@
       <c r="B177" s="2">
         <v>172</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>67</v>
+      <c r="D177" t="s">
+        <v>212</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>22</v>
@@ -5630,8 +6062,8 @@
       <c r="B178" s="2">
         <v>173</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>67</v>
+      <c r="D178" t="s">
+        <v>213</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>22</v>
@@ -5653,8 +6085,8 @@
       <c r="B179" s="2">
         <v>174</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>67</v>
+      <c r="D179" t="s">
+        <v>214</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>22</v>
@@ -5676,11 +6108,11 @@
       <c r="B180" s="2">
         <v>175</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>67</v>
+      <c r="D180" t="s">
+        <v>214</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
@@ -5699,8 +6131,8 @@
       <c r="B181" s="2">
         <v>176</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>67</v>
+      <c r="D181" t="s">
+        <v>216</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>22</v>
@@ -5722,8 +6154,8 @@
       <c r="B182" s="2">
         <v>177</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>67</v>
+      <c r="D182" t="s">
+        <v>217</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>22</v>
@@ -5745,8 +6177,8 @@
       <c r="B183" s="2">
         <v>178</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>67</v>
+      <c r="D183" t="s">
+        <v>218</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>22</v>
@@ -5768,8 +6200,8 @@
       <c r="B184" s="2">
         <v>179</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>67</v>
+      <c r="D184" t="s">
+        <v>219</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>22</v>
@@ -5791,11 +6223,11 @@
       <c r="B185" s="2">
         <v>180</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>67</v>
+      <c r="D185" t="s">
+        <v>219</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
@@ -5814,8 +6246,8 @@
       <c r="B186" s="2">
         <v>181</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>67</v>
+      <c r="D186" t="s">
+        <v>221</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>22</v>
@@ -5837,8 +6269,8 @@
       <c r="B187" s="2">
         <v>182</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>67</v>
+      <c r="D187" t="s">
+        <v>222</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>22</v>
@@ -5860,8 +6292,8 @@
       <c r="B188" s="2">
         <v>183</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>67</v>
+      <c r="D188" t="s">
+        <v>223</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>22</v>
@@ -5883,8 +6315,8 @@
       <c r="B189" s="2">
         <v>184</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>67</v>
+      <c r="D189" t="s">
+        <v>224</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>22</v>
@@ -5906,11 +6338,11 @@
       <c r="B190" s="2">
         <v>185</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>67</v>
+      <c r="D190" t="s">
+        <v>224</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
@@ -5929,8 +6361,8 @@
       <c r="B191" s="2">
         <v>186</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>67</v>
+      <c r="D191" t="s">
+        <v>226</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>22</v>
@@ -5952,8 +6384,8 @@
       <c r="B192" s="2">
         <v>187</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>67</v>
+      <c r="D192" t="s">
+        <v>227</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>22</v>
@@ -5975,8 +6407,8 @@
       <c r="B193" s="2">
         <v>188</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>67</v>
+      <c r="D193" t="s">
+        <v>228</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>22</v>
@@ -5998,8 +6430,8 @@
       <c r="B194" s="2">
         <v>189</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>67</v>
+      <c r="D194" t="s">
+        <v>229</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>22</v>
@@ -6021,11 +6453,11 @@
       <c r="B195" s="2">
         <v>190</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>67</v>
+      <c r="D195" t="s">
+        <v>229</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
@@ -6044,8 +6476,8 @@
       <c r="B196" s="2">
         <v>191</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>67</v>
+      <c r="D196" t="s">
+        <v>231</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>22</v>
@@ -6067,8 +6499,8 @@
       <c r="B197" s="2">
         <v>192</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>67</v>
+      <c r="D197" t="s">
+        <v>232</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>22</v>
@@ -6090,8 +6522,8 @@
       <c r="B198" s="2">
         <v>193</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>67</v>
+      <c r="D198" t="s">
+        <v>233</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>22</v>
@@ -6113,8 +6545,8 @@
       <c r="B199" s="2">
         <v>194</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>67</v>
+      <c r="D199" t="s">
+        <v>234</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>22</v>
@@ -6136,11 +6568,11 @@
       <c r="B200" s="2">
         <v>195</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>67</v>
+      <c r="D200" t="s">
+        <v>234</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="F200" s="2">
         <v>1</v>
@@ -6159,8 +6591,8 @@
       <c r="B201" s="2">
         <v>196</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>67</v>
+      <c r="D201" t="s">
+        <v>236</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>22</v>
@@ -6182,8 +6614,8 @@
       <c r="B202" s="2">
         <v>197</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>67</v>
+      <c r="D202" t="s">
+        <v>237</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>22</v>
@@ -6205,8 +6637,8 @@
       <c r="B203" s="2">
         <v>198</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>67</v>
+      <c r="D203" t="s">
+        <v>238</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>22</v>
@@ -6228,8 +6660,8 @@
       <c r="B204" s="2">
         <v>199</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>67</v>
+      <c r="D204" t="s">
+        <v>239</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>22</v>
@@ -6251,11 +6683,11 @@
       <c r="B205" s="2">
         <v>200</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>67</v>
+      <c r="D205" t="s">
+        <v>239</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F205" s="2">
         <v>1</v>
@@ -6274,8 +6706,8 @@
       <c r="B206" s="2">
         <v>201</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>67</v>
+      <c r="D206" t="s">
+        <v>241</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>22</v>
@@ -6297,8 +6729,8 @@
       <c r="B207" s="2">
         <v>202</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>67</v>
+      <c r="D207" t="s">
+        <v>242</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>22</v>
@@ -6320,8 +6752,8 @@
       <c r="B208" s="2">
         <v>203</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>67</v>
+      <c r="D208" t="s">
+        <v>243</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>22</v>
@@ -6343,8 +6775,8 @@
       <c r="B209" s="2">
         <v>204</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>67</v>
+      <c r="D209" t="s">
+        <v>244</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>22</v>
@@ -6366,11 +6798,11 @@
       <c r="B210" s="2">
         <v>205</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>67</v>
+      <c r="D210" t="s">
+        <v>244</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F210" s="2">
         <v>1</v>
@@ -6392,8 +6824,8 @@
       <c r="C211" s="2">
         <v>30</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>67</v>
+      <c r="D211" t="s">
+        <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>22</v>
@@ -6418,8 +6850,8 @@
       <c r="C212" s="2">
         <v>40</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>67</v>
+      <c r="D212" t="s">
+        <v>42</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>22</v>
@@ -6444,8 +6876,8 @@
       <c r="C213" s="2">
         <v>50</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>67</v>
+      <c r="D213" t="s">
+        <v>48</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>22</v>
@@ -6470,8 +6902,8 @@
       <c r="C214" s="2">
         <v>60</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>67</v>
+      <c r="D214" t="s">
+        <v>48</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>22</v>
@@ -6496,8 +6928,8 @@
       <c r="C215" s="2">
         <v>70</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>67</v>
+      <c r="D215" t="s">
+        <v>54</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>22</v>
@@ -6522,8 +6954,8 @@
       <c r="C216" s="2">
         <v>80</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>67</v>
+      <c r="D216" t="s">
+        <v>54</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>22</v>
@@ -6548,8 +6980,8 @@
       <c r="C217" s="2">
         <v>90</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>67</v>
+      <c r="D217" t="s">
+        <v>54</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>22</v>
@@ -6574,8 +7006,8 @@
       <c r="C218" s="2">
         <v>100</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>67</v>
+      <c r="D218" t="s">
+        <v>54</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>22</v>
@@ -6600,8 +7032,8 @@
       <c r="C219" s="2">
         <v>110</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>67</v>
+      <c r="D219" t="s">
+        <v>54</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>22</v>
@@ -6626,8 +7058,8 @@
       <c r="C220" s="2">
         <v>120</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>67</v>
+      <c r="D220" t="s">
+        <v>54</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>22</v>
@@ -6652,8 +7084,8 @@
       <c r="C221" s="2">
         <v>130</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>67</v>
+      <c r="D221" t="s">
+        <v>54</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>22</v>
@@ -6678,8 +7110,8 @@
       <c r="C222" s="2">
         <v>140</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>67</v>
+      <c r="D222" t="s">
+        <v>54</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>22</v>
@@ -6704,8 +7136,8 @@
       <c r="C223" s="2">
         <v>150</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>67</v>
+      <c r="D223" t="s">
+        <v>54</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>22</v>
@@ -6730,8 +7162,8 @@
       <c r="C224" s="2">
         <v>160</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>67</v>
+      <c r="D224" t="s">
+        <v>54</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>22</v>
@@ -6756,8 +7188,8 @@
       <c r="C225" s="2">
         <v>170</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>67</v>
+      <c r="D225" t="s">
+        <v>54</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>22</v>
@@ -6782,8 +7214,8 @@
       <c r="C226" s="2">
         <v>180</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>67</v>
+      <c r="D226" t="s">
+        <v>54</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>22</v>
@@ -6808,8 +7240,8 @@
       <c r="C227" s="2">
         <v>190</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>67</v>
+      <c r="D227" t="s">
+        <v>54</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>22</v>
@@ -6834,8 +7266,8 @@
       <c r="C228" s="2">
         <v>200</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>67</v>
+      <c r="D228" t="s">
+        <v>54</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>22</v>
@@ -6860,8 +7292,8 @@
       <c r="C229" s="2">
         <v>210</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>67</v>
+      <c r="D229" t="s">
+        <v>54</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>22</v>
@@ -6886,8 +7318,8 @@
       <c r="C230" s="2">
         <v>220</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>67</v>
+      <c r="D230" t="s">
+        <v>54</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>22</v>
@@ -6912,8 +7344,8 @@
       <c r="C231" s="2">
         <v>230</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>67</v>
+      <c r="D231" t="s">
+        <v>54</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>22</v>
@@ -6938,8 +7370,8 @@
       <c r="C232" s="2">
         <v>240</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>67</v>
+      <c r="D232" t="s">
+        <v>54</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>22</v>
@@ -6964,8 +7396,8 @@
       <c r="C233" s="2">
         <v>250</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>67</v>
+      <c r="D233" t="s">
+        <v>54</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>22</v>
@@ -6990,8 +7422,8 @@
       <c r="C234" s="2">
         <v>260</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>67</v>
+      <c r="D234" t="s">
+        <v>54</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>22</v>
@@ -7016,8 +7448,8 @@
       <c r="C235" s="2">
         <v>270</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>67</v>
+      <c r="D235" t="s">
+        <v>54</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>22</v>
@@ -7042,8 +7474,8 @@
       <c r="C236" s="2">
         <v>280</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>67</v>
+      <c r="D236" t="s">
+        <v>54</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>22</v>
@@ -7068,8 +7500,8 @@
       <c r="C237" s="2">
         <v>290</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>67</v>
+      <c r="D237" t="s">
+        <v>54</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>22</v>
@@ -7094,8 +7526,8 @@
       <c r="C238" s="2">
         <v>300</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>67</v>
+      <c r="D238" t="s">
+        <v>54</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>22</v>
@@ -7120,8 +7552,8 @@
       <c r="C239" s="2">
         <v>310</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>67</v>
+      <c r="D239" t="s">
+        <v>54</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>22</v>
@@ -7146,8 +7578,8 @@
       <c r="C240" s="2">
         <v>320</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>67</v>
+      <c r="D240" t="s">
+        <v>54</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>22</v>
@@ -7169,8 +7601,8 @@
       <c r="B241" s="2">
         <v>1</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>101</v>
+      <c r="D241" t="s">
+        <v>245</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>22</v>
@@ -7192,8 +7624,8 @@
       <c r="B242" s="2">
         <v>2</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>102</v>
+      <c r="D242" t="s">
+        <v>246</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>22</v>
@@ -7215,8 +7647,8 @@
       <c r="B243" s="2">
         <v>3</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>103</v>
+      <c r="D243" t="s">
+        <v>247</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>22</v>
@@ -7238,8 +7670,8 @@
       <c r="B244" s="2">
         <v>4</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>104</v>
+      <c r="D244" t="s">
+        <v>248</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>22</v>
@@ -7261,8 +7693,8 @@
       <c r="B245" s="2">
         <v>5</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>105</v>
+      <c r="D245" t="s">
+        <v>249</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>22</v>
@@ -7284,8 +7716,8 @@
       <c r="B246" s="2">
         <v>6</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>106</v>
+      <c r="D246" t="s">
+        <v>250</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>22</v>
@@ -7307,8 +7739,8 @@
       <c r="B247" s="2">
         <v>7</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>107</v>
+      <c r="D247" t="s">
+        <v>251</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>22</v>
@@ -7330,8 +7762,8 @@
       <c r="B248" s="2">
         <v>8</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>108</v>
+      <c r="D248" t="s">
+        <v>252</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>22</v>
@@ -7353,8 +7785,8 @@
       <c r="B249" s="2">
         <v>9</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>109</v>
+      <c r="D249" t="s">
+        <v>253</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>22</v>
@@ -7376,8 +7808,8 @@
       <c r="B250" s="2">
         <v>10</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>110</v>
+      <c r="D250" t="s">
+        <v>254</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>22</v>

--- a/配表/波次表.xlsx
+++ b/配表/波次表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="256">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>wavetime</t>
+  </si>
+  <si>
+    <t>wavenum</t>
   </si>
   <si>
     <t>background</t>
@@ -804,7 +807,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +821,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1290,16 +1299,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,119 +1314,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,6 +1447,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,10 +1989,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:K250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1991,11 +2003,11 @@
     <col min="4" max="4" width="97.35" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
+    <col min="7" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2017,13 +2029,14 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2036,10 +2049,11 @@
         <v>9</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2052,10 +2066,11 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2068,8 +2083,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2091,13 +2107,16 @@
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2105,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2116,11 +2135,14 @@
       <c r="G6" s="2">
         <v>1000</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2128,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -2139,11 +2161,14 @@
       <c r="G7" s="2">
         <v>1000</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2151,10 +2176,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2162,11 +2187,14 @@
       <c r="G8" s="2">
         <v>1000</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2174,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2185,11 +2213,14 @@
       <c r="G9" s="2">
         <v>1000</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2197,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -2208,11 +2239,14 @@
       <c r="G10" s="2">
         <v>1000</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -2220,10 +2254,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2231,11 +2265,14 @@
       <c r="G11" s="2">
         <v>1000</v>
       </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -2243,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2254,11 +2291,14 @@
       <c r="G12" s="2">
         <v>1000</v>
       </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -2266,10 +2306,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2277,11 +2317,14 @@
       <c r="G13" s="2">
         <v>1000</v>
       </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -2289,10 +2332,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -2300,11 +2343,14 @@
       <c r="G14" s="2">
         <v>1000</v>
       </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2312,10 +2358,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -2323,11 +2369,14 @@
       <c r="G15" s="2">
         <v>1000</v>
       </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -2335,10 +2384,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -2346,11 +2395,14 @@
       <c r="G16" s="2">
         <v>750</v>
       </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -2358,10 +2410,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -2369,11 +2421,14 @@
       <c r="G17" s="2">
         <v>750</v>
       </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -2381,10 +2436,10 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2392,11 +2447,14 @@
       <c r="G18" s="2">
         <v>750</v>
       </c>
-      <c r="H18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -2404,10 +2462,10 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -2415,11 +2473,14 @@
       <c r="G19" s="2">
         <v>750</v>
       </c>
-      <c r="H19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -2427,10 +2488,10 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -2438,11 +2499,14 @@
       <c r="G20" s="2">
         <v>750</v>
       </c>
-      <c r="H20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -2450,10 +2514,10 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2461,11 +2525,14 @@
       <c r="G21" s="2">
         <v>750</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -2473,10 +2540,10 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -2484,11 +2551,14 @@
       <c r="G22" s="2">
         <v>750</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2496,10 +2566,10 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -2507,11 +2577,14 @@
       <c r="G23" s="2">
         <v>750</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2519,10 +2592,10 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -2530,11 +2603,14 @@
       <c r="G24" s="2">
         <v>750</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2542,10 +2618,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2553,11 +2629,14 @@
       <c r="G25" s="2">
         <v>750</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2565,10 +2644,10 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -2576,11 +2655,14 @@
       <c r="G26" s="2">
         <v>750</v>
       </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2588,10 +2670,10 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -2599,11 +2681,14 @@
       <c r="G27" s="2">
         <v>750</v>
       </c>
-      <c r="H27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2611,10 +2696,10 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -2622,11 +2707,14 @@
       <c r="G28" s="2">
         <v>750</v>
       </c>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2634,10 +2722,10 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -2645,35 +2733,41 @@
       <c r="G29" s="2">
         <v>750</v>
       </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:8">
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:9">
       <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="7">
         <v>25</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="6">
+      <c r="E30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="2">
         <v>500</v>
       </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -2681,10 +2775,10 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -2692,11 +2786,14 @@
       <c r="G31" s="2">
         <v>500</v>
       </c>
-      <c r="H31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -2704,10 +2801,10 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -2715,11 +2812,14 @@
       <c r="G32" s="2">
         <v>500</v>
       </c>
-      <c r="H32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -2727,10 +2827,10 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -2738,11 +2838,14 @@
       <c r="G33" s="2">
         <v>500</v>
       </c>
-      <c r="H33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -2750,10 +2853,10 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -2761,11 +2864,14 @@
       <c r="G34" s="2">
         <v>500</v>
       </c>
-      <c r="H34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -2773,10 +2879,10 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -2784,11 +2890,14 @@
       <c r="G35" s="2">
         <v>500</v>
       </c>
-      <c r="H35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -2796,10 +2905,10 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -2807,11 +2916,14 @@
       <c r="G36" s="2">
         <v>250</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -2819,10 +2931,10 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -2830,11 +2942,14 @@
       <c r="G37" s="2">
         <v>250</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -2842,10 +2957,10 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -2853,11 +2968,14 @@
       <c r="G38" s="2">
         <v>250</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -2865,10 +2983,10 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -2876,11 +2994,14 @@
       <c r="G39" s="2">
         <v>250</v>
       </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -2888,10 +3009,10 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -2899,11 +3020,14 @@
       <c r="G40" s="2">
         <v>250</v>
       </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -2911,10 +3035,10 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -2922,11 +3046,14 @@
       <c r="G41" s="2">
         <v>150</v>
       </c>
-      <c r="H41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -2934,10 +3061,10 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -2945,11 +3072,14 @@
       <c r="G42" s="2">
         <v>150</v>
       </c>
-      <c r="H42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -2957,10 +3087,10 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -2968,11 +3098,14 @@
       <c r="G43" s="2">
         <v>150</v>
       </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -2980,10 +3113,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -2991,11 +3124,14 @@
       <c r="G44" s="2">
         <v>150</v>
       </c>
-      <c r="H44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -3003,10 +3139,10 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
@@ -3014,11 +3150,14 @@
       <c r="G45" s="2">
         <v>150</v>
       </c>
-      <c r="H45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -3026,10 +3165,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -3037,11 +3176,14 @@
       <c r="G46" s="2">
         <v>150</v>
       </c>
-      <c r="H46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -3049,10 +3191,10 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3060,11 +3202,14 @@
       <c r="G47" s="2">
         <v>150</v>
       </c>
-      <c r="H47" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -3072,10 +3217,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -3083,11 +3228,14 @@
       <c r="G48" s="2">
         <v>150</v>
       </c>
-      <c r="H48" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -3095,10 +3243,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3106,35 +3254,41 @@
       <c r="G49" s="2">
         <v>150</v>
       </c>
-      <c r="H49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:8">
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:9">
       <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="7">
         <v>45</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="7"/>
       <c r="D50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="6">
+      <c r="E50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="2">
         <v>150</v>
       </c>
-      <c r="H50" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -3142,10 +3296,10 @@
         <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -3153,11 +3307,14 @@
       <c r="G51" s="2">
         <v>150</v>
       </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -3165,10 +3322,10 @@
         <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -3176,11 +3333,14 @@
       <c r="G52" s="2">
         <v>150</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -3188,10 +3348,10 @@
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -3199,11 +3359,14 @@
       <c r="G53" s="2">
         <v>150</v>
       </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53">
+        <v>12</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -3211,10 +3374,10 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -3222,11 +3385,14 @@
       <c r="G54" s="2">
         <v>150</v>
       </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -3234,10 +3400,10 @@
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -3245,11 +3411,14 @@
       <c r="G55" s="2">
         <v>150</v>
       </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -3257,10 +3426,10 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -3268,11 +3437,14 @@
       <c r="G56" s="2">
         <v>150</v>
       </c>
-      <c r="H56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -3280,10 +3452,10 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -3291,11 +3463,14 @@
       <c r="G57" s="2">
         <v>150</v>
       </c>
-      <c r="H57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -3303,10 +3478,10 @@
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -3314,11 +3489,14 @@
       <c r="G58" s="2">
         <v>150</v>
       </c>
-      <c r="H58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58">
+        <v>13</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -3326,10 +3504,10 @@
         <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
@@ -3337,11 +3515,14 @@
       <c r="G59" s="2">
         <v>150</v>
       </c>
-      <c r="H59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59">
+        <v>13</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -3349,10 +3530,10 @@
         <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -3360,11 +3541,14 @@
       <c r="G60" s="2">
         <v>150</v>
       </c>
-      <c r="H60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60">
+        <v>13</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -3372,10 +3556,10 @@
         <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -3383,11 +3567,14 @@
       <c r="G61" s="2">
         <v>150</v>
       </c>
-      <c r="H61" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61">
+        <v>14</v>
+      </c>
+      <c r="I61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -3395,10 +3582,10 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
@@ -3406,11 +3593,14 @@
       <c r="G62" s="2">
         <v>150</v>
       </c>
-      <c r="H62" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62">
+        <v>14</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -3418,10 +3608,10 @@
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -3429,11 +3619,14 @@
       <c r="G63" s="2">
         <v>150</v>
       </c>
-      <c r="H63" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63">
+        <v>14</v>
+      </c>
+      <c r="I63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -3441,10 +3634,10 @@
         <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -3452,11 +3645,14 @@
       <c r="G64" s="2">
         <v>150</v>
       </c>
-      <c r="H64" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -3464,10 +3660,10 @@
         <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3475,11 +3671,14 @@
       <c r="G65" s="2">
         <v>150</v>
       </c>
-      <c r="H65" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65">
+        <v>14</v>
+      </c>
+      <c r="I65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -3487,10 +3686,10 @@
         <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
@@ -3498,11 +3697,14 @@
       <c r="G66" s="2">
         <v>150</v>
       </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -3510,10 +3712,10 @@
         <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
@@ -3521,11 +3723,14 @@
       <c r="G67" s="2">
         <v>150</v>
       </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -3533,10 +3738,10 @@
         <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -3544,11 +3749,14 @@
       <c r="G68" s="2">
         <v>150</v>
       </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68">
+        <v>15</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -3556,10 +3764,10 @@
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -3567,11 +3775,14 @@
       <c r="G69" s="2">
         <v>150</v>
       </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -3579,10 +3790,10 @@
         <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -3590,11 +3801,14 @@
       <c r="G70" s="2">
         <v>150</v>
       </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -3602,10 +3816,10 @@
         <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -3613,11 +3827,14 @@
       <c r="G71" s="2">
         <v>150</v>
       </c>
-      <c r="H71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -3625,10 +3842,10 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
@@ -3636,11 +3853,14 @@
       <c r="G72" s="2">
         <v>150</v>
       </c>
-      <c r="H72" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72">
+        <v>16</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -3648,10 +3868,10 @@
         <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
@@ -3659,11 +3879,14 @@
       <c r="G73" s="2">
         <v>150</v>
       </c>
-      <c r="H73" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -3671,10 +3894,10 @@
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -3682,11 +3905,14 @@
       <c r="G74" s="2">
         <v>150</v>
       </c>
-      <c r="H74" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74">
+        <v>16</v>
+      </c>
+      <c r="I74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -3694,10 +3920,10 @@
         <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
@@ -3705,11 +3931,14 @@
       <c r="G75" s="2">
         <v>150</v>
       </c>
-      <c r="H75" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -3717,10 +3946,10 @@
         <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -3728,11 +3957,14 @@
       <c r="G76" s="2">
         <v>150</v>
       </c>
-      <c r="H76" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76">
+        <v>18</v>
+      </c>
+      <c r="I76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -3740,10 +3972,10 @@
         <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -3751,11 +3983,14 @@
       <c r="G77" s="2">
         <v>150</v>
       </c>
-      <c r="H77" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77">
+        <v>18</v>
+      </c>
+      <c r="I77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -3763,10 +3998,10 @@
         <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
@@ -3774,11 +4009,14 @@
       <c r="G78" s="2">
         <v>150</v>
       </c>
-      <c r="H78" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78">
+        <v>18</v>
+      </c>
+      <c r="I78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -3786,10 +4024,10 @@
         <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
@@ -3797,11 +4035,14 @@
       <c r="G79" s="2">
         <v>150</v>
       </c>
-      <c r="H79" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79">
+        <v>18</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -3809,10 +4050,10 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -3820,11 +4061,14 @@
       <c r="G80" s="2">
         <v>150</v>
       </c>
-      <c r="H80" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="H80">
+        <v>18</v>
+      </c>
+      <c r="I80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -3832,10 +4076,10 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -3843,11 +4087,14 @@
       <c r="G81" s="2">
         <v>150</v>
       </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81">
+        <v>19</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -3855,10 +4102,10 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -3866,11 +4113,14 @@
       <c r="G82" s="2">
         <v>150</v>
       </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82">
+        <v>19</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -3878,10 +4128,10 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -3889,11 +4139,14 @@
       <c r="G83" s="2">
         <v>150</v>
       </c>
-      <c r="H83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="H83">
+        <v>19</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -3901,10 +4154,10 @@
         <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
@@ -3912,11 +4165,14 @@
       <c r="G84" s="2">
         <v>150</v>
       </c>
-      <c r="H84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="H84">
+        <v>19</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -3924,10 +4180,10 @@
         <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
@@ -3935,11 +4191,14 @@
       <c r="G85" s="2">
         <v>150</v>
       </c>
-      <c r="H85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="H85">
+        <v>19</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -3947,10 +4206,10 @@
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
@@ -3958,11 +4217,14 @@
       <c r="G86" s="2">
         <v>150</v>
       </c>
-      <c r="H86" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="H86">
+        <v>20</v>
+      </c>
+      <c r="I86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -3970,10 +4232,10 @@
         <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
@@ -3981,11 +4243,14 @@
       <c r="G87" s="2">
         <v>150</v>
       </c>
-      <c r="H87" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="I87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -3993,10 +4258,10 @@
         <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
@@ -4004,11 +4269,14 @@
       <c r="G88" s="2">
         <v>150</v>
       </c>
-      <c r="H88" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88">
+        <v>20</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -4016,10 +4284,10 @@
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -4027,11 +4295,14 @@
       <c r="G89" s="2">
         <v>150</v>
       </c>
-      <c r="H89" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -4039,22 +4310,25 @@
         <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="E90" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="2">
         <v>150</v>
       </c>
-      <c r="H90" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="H90">
+        <v>20</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -4062,10 +4336,10 @@
         <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
@@ -4073,11 +4347,14 @@
       <c r="G91" s="2">
         <v>150</v>
       </c>
-      <c r="H91" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="H91">
+        <v>21</v>
+      </c>
+      <c r="I91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -4085,10 +4362,10 @@
         <v>87</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
@@ -4096,11 +4373,14 @@
       <c r="G92" s="2">
         <v>150</v>
       </c>
-      <c r="H92" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="H92">
+        <v>21</v>
+      </c>
+      <c r="I92" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -4108,10 +4388,10 @@
         <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
@@ -4119,11 +4399,14 @@
       <c r="G93" s="2">
         <v>150</v>
       </c>
-      <c r="H93" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93">
+        <v>21</v>
+      </c>
+      <c r="I93" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -4131,10 +4414,10 @@
         <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
@@ -4142,11 +4425,14 @@
       <c r="G94" s="2">
         <v>150</v>
       </c>
-      <c r="H94" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H94">
+        <v>21</v>
+      </c>
+      <c r="I94" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -4154,22 +4440,25 @@
         <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="E95" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" s="2">
         <v>150</v>
       </c>
-      <c r="H95" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="H95">
+        <v>21</v>
+      </c>
+      <c r="I95" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -4177,22 +4466,25 @@
         <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <v>150</v>
+      </c>
+      <c r="H96">
         <v>22</v>
       </c>
-      <c r="F96" s="2">
-        <v>1</v>
-      </c>
-      <c r="G96" s="2">
-        <v>150</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -4200,22 +4492,25 @@
         <v>92</v>
       </c>
       <c r="D97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2">
+        <v>150</v>
+      </c>
+      <c r="H97">
         <v>22</v>
       </c>
-      <c r="F97" s="2">
-        <v>1</v>
-      </c>
-      <c r="G97" s="2">
-        <v>150</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -4223,22 +4518,25 @@
         <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>150</v>
+      </c>
+      <c r="H98">
         <v>22</v>
       </c>
-      <c r="F98" s="2">
-        <v>1</v>
-      </c>
-      <c r="G98" s="2">
-        <v>150</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -4246,22 +4544,25 @@
         <v>94</v>
       </c>
       <c r="D99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2">
+        <v>150</v>
+      </c>
+      <c r="H99">
         <v>22</v>
       </c>
-      <c r="F99" s="2">
-        <v>1</v>
-      </c>
-      <c r="G99" s="2">
-        <v>150</v>
-      </c>
-      <c r="H99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -4269,22 +4570,25 @@
         <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="E100" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" s="2">
         <v>150</v>
       </c>
-      <c r="H100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="H100">
+        <v>22</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -4292,10 +4596,10 @@
         <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
@@ -4303,11 +4607,14 @@
       <c r="G101" s="2">
         <v>150</v>
       </c>
-      <c r="H101" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="H101">
+        <v>23</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -4315,10 +4622,10 @@
         <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
@@ -4326,11 +4633,14 @@
       <c r="G102" s="2">
         <v>150</v>
       </c>
-      <c r="H102" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="H102">
+        <v>23</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -4338,10 +4648,10 @@
         <v>98</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
@@ -4349,11 +4659,14 @@
       <c r="G103" s="2">
         <v>150</v>
       </c>
-      <c r="H103" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="H103">
+        <v>23</v>
+      </c>
+      <c r="I103" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -4361,10 +4674,10 @@
         <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
@@ -4372,11 +4685,14 @@
       <c r="G104" s="2">
         <v>150</v>
       </c>
-      <c r="H104" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="H104">
+        <v>23</v>
+      </c>
+      <c r="I104" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -4384,22 +4700,25 @@
         <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
-      </c>
-      <c r="E105" s="6" t="s">
         <v>139</v>
       </c>
+      <c r="E105" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" s="2">
         <v>150</v>
       </c>
-      <c r="H105" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="H105">
+        <v>23</v>
+      </c>
+      <c r="I105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>101</v>
       </c>
@@ -4407,10 +4726,10 @@
         <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
@@ -4418,11 +4737,14 @@
       <c r="G106" s="2">
         <v>150</v>
       </c>
-      <c r="H106" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="H106">
+        <v>24</v>
+      </c>
+      <c r="I106" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>102</v>
       </c>
@@ -4430,10 +4752,10 @@
         <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
@@ -4441,11 +4763,14 @@
       <c r="G107" s="2">
         <v>150</v>
       </c>
-      <c r="H107" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="H107">
+        <v>24</v>
+      </c>
+      <c r="I107" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>103</v>
       </c>
@@ -4453,10 +4778,10 @@
         <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
@@ -4464,11 +4789,14 @@
       <c r="G108" s="2">
         <v>150</v>
       </c>
-      <c r="H108" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="H108">
+        <v>24</v>
+      </c>
+      <c r="I108" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="2">
         <v>104</v>
       </c>
@@ -4476,10 +4804,10 @@
         <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
@@ -4487,11 +4815,14 @@
       <c r="G109" s="2">
         <v>150</v>
       </c>
-      <c r="H109" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="2">
         <v>105</v>
       </c>
@@ -4499,10 +4830,10 @@
         <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
@@ -4510,11 +4841,14 @@
       <c r="G110" s="2">
         <v>150</v>
       </c>
-      <c r="H110" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="H110">
+        <v>24</v>
+      </c>
+      <c r="I110" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
         <v>106</v>
       </c>
@@ -4522,10 +4856,10 @@
         <v>106</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
@@ -4533,11 +4867,14 @@
       <c r="G111" s="2">
         <v>150</v>
       </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="H111">
+        <v>15</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
         <v>107</v>
       </c>
@@ -4545,10 +4882,10 @@
         <v>107</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
@@ -4556,11 +4893,14 @@
       <c r="G112" s="2">
         <v>150</v>
       </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="H112">
+        <v>15</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="2">
         <v>108</v>
       </c>
@@ -4568,10 +4908,10 @@
         <v>108</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
@@ -4579,11 +4919,14 @@
       <c r="G113" s="2">
         <v>150</v>
       </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="H113">
+        <v>15</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="2">
         <v>109</v>
       </c>
@@ -4591,10 +4934,10 @@
         <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
@@ -4602,11 +4945,14 @@
       <c r="G114" s="2">
         <v>150</v>
       </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="H114">
+        <v>15</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2">
         <v>110</v>
       </c>
@@ -4614,10 +4960,10 @@
         <v>110</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
@@ -4625,11 +4971,14 @@
       <c r="G115" s="2">
         <v>150</v>
       </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="H115">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2">
         <v>111</v>
       </c>
@@ -4637,10 +4986,10 @@
         <v>111</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
@@ -4648,11 +4997,14 @@
       <c r="G116" s="2">
         <v>150</v>
       </c>
-      <c r="H116" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="H116">
+        <v>15</v>
+      </c>
+      <c r="I116" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>112</v>
       </c>
@@ -4660,10 +5012,10 @@
         <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
@@ -4671,11 +5023,14 @@
       <c r="G117" s="2">
         <v>150</v>
       </c>
-      <c r="H117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="H117">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>113</v>
       </c>
@@ -4683,10 +5038,10 @@
         <v>113</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
@@ -4694,11 +5049,14 @@
       <c r="G118" s="2">
         <v>150</v>
       </c>
-      <c r="H118" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="H118">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>114</v>
       </c>
@@ -4706,10 +5064,10 @@
         <v>114</v>
       </c>
       <c r="D119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
@@ -4717,11 +5075,14 @@
       <c r="G119" s="2">
         <v>150</v>
       </c>
-      <c r="H119" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="H119">
+        <v>15</v>
+      </c>
+      <c r="I119" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>115</v>
       </c>
@@ -4729,10 +5090,10 @@
         <v>115</v>
       </c>
       <c r="D120" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
@@ -4740,11 +5101,14 @@
       <c r="G120" s="2">
         <v>150</v>
       </c>
-      <c r="H120" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="H120">
+        <v>15</v>
+      </c>
+      <c r="I120" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="2">
         <v>116</v>
       </c>
@@ -4752,10 +5116,10 @@
         <v>116</v>
       </c>
       <c r="D121" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
@@ -4763,11 +5127,14 @@
       <c r="G121" s="2">
         <v>150</v>
       </c>
-      <c r="H121" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="H121">
+        <v>15</v>
+      </c>
+      <c r="I121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="2">
         <v>117</v>
       </c>
@@ -4775,10 +5142,10 @@
         <v>117</v>
       </c>
       <c r="D122" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
@@ -4786,11 +5153,14 @@
       <c r="G122" s="2">
         <v>150</v>
       </c>
-      <c r="H122" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="H122">
+        <v>15</v>
+      </c>
+      <c r="I122" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="2">
         <v>118</v>
       </c>
@@ -4798,10 +5168,10 @@
         <v>118</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
@@ -4809,11 +5179,14 @@
       <c r="G123" s="2">
         <v>150</v>
       </c>
-      <c r="H123" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="H123">
+        <v>15</v>
+      </c>
+      <c r="I123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
         <v>119</v>
       </c>
@@ -4821,10 +5194,10 @@
         <v>119</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
@@ -4832,11 +5205,14 @@
       <c r="G124" s="2">
         <v>150</v>
       </c>
-      <c r="H124" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="H124">
+        <v>15</v>
+      </c>
+      <c r="I124" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
         <v>120</v>
       </c>
@@ -4844,10 +5220,10 @@
         <v>120</v>
       </c>
       <c r="D125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
@@ -4855,11 +5231,14 @@
       <c r="G125" s="2">
         <v>150</v>
       </c>
-      <c r="H125" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="H125">
+        <v>15</v>
+      </c>
+      <c r="I125" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
         <v>121</v>
       </c>
@@ -4867,10 +5246,10 @@
         <v>121</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
@@ -4878,11 +5257,14 @@
       <c r="G126" s="2">
         <v>150</v>
       </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="H126">
+        <v>15</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="2">
         <v>122</v>
       </c>
@@ -4890,10 +5272,10 @@
         <v>122</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
@@ -4901,11 +5283,14 @@
       <c r="G127" s="2">
         <v>150</v>
       </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="H127">
+        <v>15</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="2">
         <v>123</v>
       </c>
@@ -4913,10 +5298,10 @@
         <v>123</v>
       </c>
       <c r="D128" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
@@ -4924,11 +5309,14 @@
       <c r="G128" s="2">
         <v>150</v>
       </c>
-      <c r="H128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="H128">
+        <v>15</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="2">
         <v>124</v>
       </c>
@@ -4936,10 +5324,10 @@
         <v>124</v>
       </c>
       <c r="D129" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
@@ -4947,11 +5335,14 @@
       <c r="G129" s="2">
         <v>150</v>
       </c>
-      <c r="H129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="H129">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="2">
         <v>125</v>
       </c>
@@ -4959,10 +5350,10 @@
         <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
@@ -4970,11 +5361,14 @@
       <c r="G130" s="2">
         <v>150</v>
       </c>
-      <c r="H130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="H130">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="2">
         <v>126</v>
       </c>
@@ -4982,10 +5376,10 @@
         <v>126</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
@@ -4993,11 +5387,14 @@
       <c r="G131" s="2">
         <v>150</v>
       </c>
-      <c r="H131" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="H131">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="2">
         <v>127</v>
       </c>
@@ -5005,10 +5402,10 @@
         <v>127</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
@@ -5016,11 +5413,14 @@
       <c r="G132" s="2">
         <v>150</v>
       </c>
-      <c r="H132" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="H132">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="2">
         <v>128</v>
       </c>
@@ -5028,10 +5428,10 @@
         <v>128</v>
       </c>
       <c r="D133" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
@@ -5039,11 +5439,14 @@
       <c r="G133" s="2">
         <v>150</v>
       </c>
-      <c r="H133" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="H133">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="2">
         <v>129</v>
       </c>
@@ -5051,10 +5454,10 @@
         <v>129</v>
       </c>
       <c r="D134" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
@@ -5062,11 +5465,14 @@
       <c r="G134" s="2">
         <v>150</v>
       </c>
-      <c r="H134" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="H134">
+        <v>15</v>
+      </c>
+      <c r="I134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2">
         <v>130</v>
       </c>
@@ -5074,10 +5480,10 @@
         <v>130</v>
       </c>
       <c r="D135" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
@@ -5085,11 +5491,14 @@
       <c r="G135" s="2">
         <v>150</v>
       </c>
-      <c r="H135" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="H135">
+        <v>15</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="2">
         <v>131</v>
       </c>
@@ -5097,10 +5506,10 @@
         <v>131</v>
       </c>
       <c r="D136" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
@@ -5108,11 +5517,14 @@
       <c r="G136" s="2">
         <v>150</v>
       </c>
-      <c r="H136" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="H136">
+        <v>15</v>
+      </c>
+      <c r="I136" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="2">
         <v>132</v>
       </c>
@@ -5120,10 +5532,10 @@
         <v>132</v>
       </c>
       <c r="D137" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
@@ -5131,11 +5543,14 @@
       <c r="G137" s="2">
         <v>150</v>
       </c>
-      <c r="H137" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="H137">
+        <v>15</v>
+      </c>
+      <c r="I137" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="2">
         <v>133</v>
       </c>
@@ -5143,10 +5558,10 @@
         <v>133</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
@@ -5154,11 +5569,14 @@
       <c r="G138" s="2">
         <v>150</v>
       </c>
-      <c r="H138" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="H138">
+        <v>15</v>
+      </c>
+      <c r="I138" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="2">
         <v>134</v>
       </c>
@@ -5166,10 +5584,10 @@
         <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
@@ -5177,11 +5595,14 @@
       <c r="G139" s="2">
         <v>150</v>
       </c>
-      <c r="H139" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="H139">
+        <v>15</v>
+      </c>
+      <c r="I139" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="2">
         <v>135</v>
       </c>
@@ -5189,10 +5610,10 @@
         <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
@@ -5200,11 +5621,14 @@
       <c r="G140" s="2">
         <v>150</v>
       </c>
-      <c r="H140" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="H140">
+        <v>15</v>
+      </c>
+      <c r="I140" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="2">
         <v>136</v>
       </c>
@@ -5212,10 +5636,10 @@
         <v>136</v>
       </c>
       <c r="D141" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
@@ -5223,11 +5647,14 @@
       <c r="G141" s="2">
         <v>150</v>
       </c>
-      <c r="H141" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="H141">
+        <v>15</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="2">
         <v>137</v>
       </c>
@@ -5235,10 +5662,10 @@
         <v>137</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
@@ -5246,11 +5673,14 @@
       <c r="G142" s="2">
         <v>150</v>
       </c>
-      <c r="H142" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="H142">
+        <v>15</v>
+      </c>
+      <c r="I142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="2">
         <v>138</v>
       </c>
@@ -5258,10 +5688,10 @@
         <v>138</v>
       </c>
       <c r="D143" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
@@ -5269,11 +5699,14 @@
       <c r="G143" s="2">
         <v>150</v>
       </c>
-      <c r="H143" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="H143">
+        <v>15</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="2">
         <v>139</v>
       </c>
@@ -5281,10 +5714,10 @@
         <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
@@ -5292,11 +5725,14 @@
       <c r="G144" s="2">
         <v>150</v>
       </c>
-      <c r="H144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="H144">
+        <v>15</v>
+      </c>
+      <c r="I144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <v>140</v>
       </c>
@@ -5304,10 +5740,10 @@
         <v>140</v>
       </c>
       <c r="D145" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
@@ -5315,11 +5751,14 @@
       <c r="G145" s="2">
         <v>150</v>
       </c>
-      <c r="H145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="H145">
+        <v>15</v>
+      </c>
+      <c r="I145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <v>141</v>
       </c>
@@ -5327,10 +5766,10 @@
         <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
@@ -5338,11 +5777,14 @@
       <c r="G146" s="2">
         <v>150</v>
       </c>
-      <c r="H146" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="H146">
+        <v>15</v>
+      </c>
+      <c r="I146" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="2">
         <v>142</v>
       </c>
@@ -5350,10 +5792,10 @@
         <v>142</v>
       </c>
       <c r="D147" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
@@ -5361,11 +5803,14 @@
       <c r="G147" s="2">
         <v>150</v>
       </c>
-      <c r="H147" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="H147">
+        <v>15</v>
+      </c>
+      <c r="I147" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <v>143</v>
       </c>
@@ -5373,10 +5818,10 @@
         <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
@@ -5384,11 +5829,14 @@
       <c r="G148" s="2">
         <v>150</v>
       </c>
-      <c r="H148" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="H148">
+        <v>15</v>
+      </c>
+      <c r="I148" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="2">
         <v>144</v>
       </c>
@@ -5396,10 +5844,10 @@
         <v>144</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
@@ -5407,11 +5855,14 @@
       <c r="G149" s="2">
         <v>150</v>
       </c>
-      <c r="H149" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="H149">
+        <v>15</v>
+      </c>
+      <c r="I149" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="2">
         <v>145</v>
       </c>
@@ -5419,10 +5870,10 @@
         <v>145</v>
       </c>
       <c r="D150" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
@@ -5430,11 +5881,14 @@
       <c r="G150" s="2">
         <v>150</v>
       </c>
-      <c r="H150" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="H150">
+        <v>15</v>
+      </c>
+      <c r="I150" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="2">
         <v>146</v>
       </c>
@@ -5442,10 +5896,10 @@
         <v>146</v>
       </c>
       <c r="D151" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
@@ -5453,11 +5907,14 @@
       <c r="G151" s="2">
         <v>150</v>
       </c>
-      <c r="H151" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="H151">
+        <v>15</v>
+      </c>
+      <c r="I151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="2">
         <v>147</v>
       </c>
@@ -5465,10 +5922,10 @@
         <v>147</v>
       </c>
       <c r="D152" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
@@ -5476,11 +5933,14 @@
       <c r="G152" s="2">
         <v>150</v>
       </c>
-      <c r="H152" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="H152">
+        <v>15</v>
+      </c>
+      <c r="I152" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="2">
         <v>148</v>
       </c>
@@ -5488,10 +5948,10 @@
         <v>148</v>
       </c>
       <c r="D153" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
@@ -5499,11 +5959,14 @@
       <c r="G153" s="2">
         <v>150</v>
       </c>
-      <c r="H153" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="H153">
+        <v>15</v>
+      </c>
+      <c r="I153" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="2">
         <v>149</v>
       </c>
@@ -5511,10 +5974,10 @@
         <v>149</v>
       </c>
       <c r="D154" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
@@ -5522,11 +5985,14 @@
       <c r="G154" s="2">
         <v>150</v>
       </c>
-      <c r="H154" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="H154">
+        <v>15</v>
+      </c>
+      <c r="I154" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="2">
         <v>150</v>
       </c>
@@ -5534,10 +6000,10 @@
         <v>150</v>
       </c>
       <c r="D155" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
@@ -5545,11 +6011,14 @@
       <c r="G155" s="2">
         <v>150</v>
       </c>
-      <c r="H155" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="H155">
+        <v>15</v>
+      </c>
+      <c r="I155" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="2">
         <v>151</v>
       </c>
@@ -5557,10 +6026,10 @@
         <v>151</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F156" s="2">
         <v>1</v>
@@ -5568,11 +6037,14 @@
       <c r="G156" s="2">
         <v>150</v>
       </c>
-      <c r="H156" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="H156">
+        <v>15</v>
+      </c>
+      <c r="I156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="2">
         <v>152</v>
       </c>
@@ -5580,10 +6052,10 @@
         <v>152</v>
       </c>
       <c r="D157" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F157" s="2">
         <v>1</v>
@@ -5591,11 +6063,14 @@
       <c r="G157" s="2">
         <v>150</v>
       </c>
-      <c r="H157" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="H157">
+        <v>15</v>
+      </c>
+      <c r="I157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="2">
         <v>153</v>
       </c>
@@ -5603,10 +6078,10 @@
         <v>153</v>
       </c>
       <c r="D158" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F158" s="2">
         <v>1</v>
@@ -5614,11 +6089,14 @@
       <c r="G158" s="2">
         <v>150</v>
       </c>
-      <c r="H158" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="H158">
+        <v>15</v>
+      </c>
+      <c r="I158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="2">
         <v>154</v>
       </c>
@@ -5626,10 +6104,10 @@
         <v>154</v>
       </c>
       <c r="D159" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F159" s="2">
         <v>1</v>
@@ -5637,11 +6115,14 @@
       <c r="G159" s="2">
         <v>150</v>
       </c>
-      <c r="H159" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="H159">
+        <v>15</v>
+      </c>
+      <c r="I159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="2">
         <v>155</v>
       </c>
@@ -5649,10 +6130,10 @@
         <v>155</v>
       </c>
       <c r="D160" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
@@ -5660,11 +6141,14 @@
       <c r="G160" s="2">
         <v>150</v>
       </c>
-      <c r="H160" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="H160">
+        <v>15</v>
+      </c>
+      <c r="I160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
         <v>156</v>
       </c>
@@ -5672,10 +6156,10 @@
         <v>156</v>
       </c>
       <c r="D161" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
@@ -5683,11 +6167,14 @@
       <c r="G161" s="2">
         <v>150</v>
       </c>
-      <c r="H161" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="H161">
+        <v>15</v>
+      </c>
+      <c r="I161" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="2">
         <v>157</v>
       </c>
@@ -5695,10 +6182,10 @@
         <v>157</v>
       </c>
       <c r="D162" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F162" s="2">
         <v>1</v>
@@ -5706,11 +6193,14 @@
       <c r="G162" s="2">
         <v>150</v>
       </c>
-      <c r="H162" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="H162">
+        <v>15</v>
+      </c>
+      <c r="I162" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="2">
         <v>158</v>
       </c>
@@ -5718,10 +6208,10 @@
         <v>158</v>
       </c>
       <c r="D163" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
@@ -5729,11 +6219,14 @@
       <c r="G163" s="2">
         <v>150</v>
       </c>
-      <c r="H163" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="H163">
+        <v>15</v>
+      </c>
+      <c r="I163" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="2">
         <v>159</v>
       </c>
@@ -5741,10 +6234,10 @@
         <v>159</v>
       </c>
       <c r="D164" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
@@ -5752,11 +6245,14 @@
       <c r="G164" s="2">
         <v>150</v>
       </c>
-      <c r="H164" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="H164">
+        <v>15</v>
+      </c>
+      <c r="I164" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="2">
         <v>160</v>
       </c>
@@ -5764,10 +6260,10 @@
         <v>160</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
@@ -5775,11 +6271,14 @@
       <c r="G165" s="2">
         <v>150</v>
       </c>
-      <c r="H165" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="H165">
+        <v>15</v>
+      </c>
+      <c r="I165" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="2">
         <v>161</v>
       </c>
@@ -5787,10 +6286,10 @@
         <v>161</v>
       </c>
       <c r="D166" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
@@ -5798,11 +6297,14 @@
       <c r="G166" s="2">
         <v>150</v>
       </c>
-      <c r="H166" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="H166">
+        <v>15</v>
+      </c>
+      <c r="I166" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>162</v>
       </c>
@@ -5810,10 +6312,10 @@
         <v>162</v>
       </c>
       <c r="D167" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
@@ -5821,11 +6323,14 @@
       <c r="G167" s="2">
         <v>150</v>
       </c>
-      <c r="H167" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="H167">
+        <v>15</v>
+      </c>
+      <c r="I167" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="2">
         <v>163</v>
       </c>
@@ -5833,10 +6338,10 @@
         <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F168" s="2">
         <v>1</v>
@@ -5844,11 +6349,14 @@
       <c r="G168" s="2">
         <v>150</v>
       </c>
-      <c r="H168" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="H168">
+        <v>15</v>
+      </c>
+      <c r="I168" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="2">
         <v>164</v>
       </c>
@@ -5856,10 +6364,10 @@
         <v>164</v>
       </c>
       <c r="D169" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F169" s="2">
         <v>1</v>
@@ -5867,11 +6375,14 @@
       <c r="G169" s="2">
         <v>150</v>
       </c>
-      <c r="H169" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="H169">
+        <v>15</v>
+      </c>
+      <c r="I169" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="2">
         <v>165</v>
       </c>
@@ -5879,10 +6390,10 @@
         <v>165</v>
       </c>
       <c r="D170" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
@@ -5890,11 +6401,14 @@
       <c r="G170" s="2">
         <v>150</v>
       </c>
-      <c r="H170" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="H170">
+        <v>15</v>
+      </c>
+      <c r="I170" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="2">
         <v>166</v>
       </c>
@@ -5902,10 +6416,10 @@
         <v>166</v>
       </c>
       <c r="D171" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F171" s="2">
         <v>1</v>
@@ -5913,11 +6427,14 @@
       <c r="G171" s="2">
         <v>150</v>
       </c>
-      <c r="H171" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="H171">
+        <v>15</v>
+      </c>
+      <c r="I171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="2">
         <v>167</v>
       </c>
@@ -5925,10 +6442,10 @@
         <v>167</v>
       </c>
       <c r="D172" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F172" s="2">
         <v>1</v>
@@ -5936,11 +6453,14 @@
       <c r="G172" s="2">
         <v>150</v>
       </c>
-      <c r="H172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="H172">
+        <v>15</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="2">
         <v>168</v>
       </c>
@@ -5948,10 +6468,10 @@
         <v>168</v>
       </c>
       <c r="D173" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F173" s="2">
         <v>1</v>
@@ -5959,11 +6479,14 @@
       <c r="G173" s="2">
         <v>150</v>
       </c>
-      <c r="H173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="H173">
+        <v>15</v>
+      </c>
+      <c r="I173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="2">
         <v>169</v>
       </c>
@@ -5971,10 +6494,10 @@
         <v>169</v>
       </c>
       <c r="D174" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F174" s="2">
         <v>1</v>
@@ -5982,11 +6505,14 @@
       <c r="G174" s="2">
         <v>150</v>
       </c>
-      <c r="H174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="H174">
+        <v>15</v>
+      </c>
+      <c r="I174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="2">
         <v>170</v>
       </c>
@@ -5994,10 +6520,10 @@
         <v>170</v>
       </c>
       <c r="D175" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F175" s="2">
         <v>1</v>
@@ -6005,11 +6531,14 @@
       <c r="G175" s="2">
         <v>150</v>
       </c>
-      <c r="H175" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="H175">
+        <v>15</v>
+      </c>
+      <c r="I175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="2">
         <v>171</v>
       </c>
@@ -6017,10 +6546,10 @@
         <v>171</v>
       </c>
       <c r="D176" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F176" s="2">
         <v>1</v>
@@ -6028,11 +6557,14 @@
       <c r="G176" s="2">
         <v>150</v>
       </c>
-      <c r="H176" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="H176">
+        <v>15</v>
+      </c>
+      <c r="I176" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="2">
         <v>172</v>
       </c>
@@ -6040,10 +6572,10 @@
         <v>172</v>
       </c>
       <c r="D177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F177" s="2">
         <v>1</v>
@@ -6051,11 +6583,14 @@
       <c r="G177" s="2">
         <v>150</v>
       </c>
-      <c r="H177" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="H177">
+        <v>15</v>
+      </c>
+      <c r="I177" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="2">
         <v>173</v>
       </c>
@@ -6063,10 +6598,10 @@
         <v>173</v>
       </c>
       <c r="D178" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F178" s="2">
         <v>1</v>
@@ -6074,11 +6609,14 @@
       <c r="G178" s="2">
         <v>150</v>
       </c>
-      <c r="H178" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="H178">
+        <v>15</v>
+      </c>
+      <c r="I178" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="2">
         <v>174</v>
       </c>
@@ -6086,10 +6624,10 @@
         <v>174</v>
       </c>
       <c r="D179" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F179" s="2">
         <v>1</v>
@@ -6097,11 +6635,14 @@
       <c r="G179" s="2">
         <v>150</v>
       </c>
-      <c r="H179" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="H179">
+        <v>15</v>
+      </c>
+      <c r="I179" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -6109,10 +6650,10 @@
         <v>175</v>
       </c>
       <c r="D180" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
@@ -6120,11 +6661,14 @@
       <c r="G180" s="2">
         <v>150</v>
       </c>
-      <c r="H180" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="H180">
+        <v>15</v>
+      </c>
+      <c r="I180" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="2">
         <v>176</v>
       </c>
@@ -6132,10 +6676,10 @@
         <v>176</v>
       </c>
       <c r="D181" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
@@ -6143,11 +6687,14 @@
       <c r="G181" s="2">
         <v>150</v>
       </c>
-      <c r="H181" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="H181">
+        <v>15</v>
+      </c>
+      <c r="I181" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="2">
         <v>177</v>
       </c>
@@ -6155,10 +6702,10 @@
         <v>177</v>
       </c>
       <c r="D182" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
@@ -6166,11 +6713,14 @@
       <c r="G182" s="2">
         <v>150</v>
       </c>
-      <c r="H182" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="H182">
+        <v>15</v>
+      </c>
+      <c r="I182" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="2">
         <v>178</v>
       </c>
@@ -6178,10 +6728,10 @@
         <v>178</v>
       </c>
       <c r="D183" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
@@ -6189,11 +6739,14 @@
       <c r="G183" s="2">
         <v>150</v>
       </c>
-      <c r="H183" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="H183">
+        <v>15</v>
+      </c>
+      <c r="I183" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="2">
         <v>179</v>
       </c>
@@ -6201,10 +6754,10 @@
         <v>179</v>
       </c>
       <c r="D184" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
@@ -6212,11 +6765,14 @@
       <c r="G184" s="2">
         <v>150</v>
       </c>
-      <c r="H184" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="H184">
+        <v>15</v>
+      </c>
+      <c r="I184" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="2">
         <v>180</v>
       </c>
@@ -6224,10 +6780,10 @@
         <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
@@ -6235,11 +6791,14 @@
       <c r="G185" s="2">
         <v>150</v>
       </c>
-      <c r="H185" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="H185">
+        <v>15</v>
+      </c>
+      <c r="I185" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="2">
         <v>181</v>
       </c>
@@ -6247,10 +6806,10 @@
         <v>181</v>
       </c>
       <c r="D186" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
@@ -6258,11 +6817,14 @@
       <c r="G186" s="2">
         <v>150</v>
       </c>
-      <c r="H186" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="H186">
+        <v>15</v>
+      </c>
+      <c r="I186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="2">
         <v>182</v>
       </c>
@@ -6270,10 +6832,10 @@
         <v>182</v>
       </c>
       <c r="D187" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F187" s="2">
         <v>1</v>
@@ -6281,11 +6843,14 @@
       <c r="G187" s="2">
         <v>150</v>
       </c>
-      <c r="H187" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="H187">
+        <v>15</v>
+      </c>
+      <c r="I187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="2">
         <v>183</v>
       </c>
@@ -6293,10 +6858,10 @@
         <v>183</v>
       </c>
       <c r="D188" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F188" s="2">
         <v>1</v>
@@ -6304,11 +6869,14 @@
       <c r="G188" s="2">
         <v>150</v>
       </c>
-      <c r="H188" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="H188">
+        <v>15</v>
+      </c>
+      <c r="I188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="2">
         <v>184</v>
       </c>
@@ -6316,10 +6884,10 @@
         <v>184</v>
       </c>
       <c r="D189" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F189" s="2">
         <v>1</v>
@@ -6327,11 +6895,14 @@
       <c r="G189" s="2">
         <v>150</v>
       </c>
-      <c r="H189" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="H189">
+        <v>15</v>
+      </c>
+      <c r="I189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="2">
         <v>185</v>
       </c>
@@ -6339,10 +6910,10 @@
         <v>185</v>
       </c>
       <c r="D190" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
@@ -6350,11 +6921,14 @@
       <c r="G190" s="2">
         <v>150</v>
       </c>
-      <c r="H190" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="H190">
+        <v>15</v>
+      </c>
+      <c r="I190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="2">
         <v>186</v>
       </c>
@@ -6362,10 +6936,10 @@
         <v>186</v>
       </c>
       <c r="D191" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F191" s="2">
         <v>1</v>
@@ -6373,11 +6947,14 @@
       <c r="G191" s="2">
         <v>150</v>
       </c>
-      <c r="H191" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="H191">
+        <v>15</v>
+      </c>
+      <c r="I191" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="2">
         <v>187</v>
       </c>
@@ -6385,10 +6962,10 @@
         <v>187</v>
       </c>
       <c r="D192" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F192" s="2">
         <v>1</v>
@@ -6396,11 +6973,14 @@
       <c r="G192" s="2">
         <v>150</v>
       </c>
-      <c r="H192" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="H192">
+        <v>15</v>
+      </c>
+      <c r="I192" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="2">
         <v>188</v>
       </c>
@@ -6408,10 +6988,10 @@
         <v>188</v>
       </c>
       <c r="D193" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F193" s="2">
         <v>1</v>
@@ -6419,11 +6999,14 @@
       <c r="G193" s="2">
         <v>150</v>
       </c>
-      <c r="H193" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="H193">
+        <v>15</v>
+      </c>
+      <c r="I193" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="2">
         <v>189</v>
       </c>
@@ -6431,10 +7014,10 @@
         <v>189</v>
       </c>
       <c r="D194" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F194" s="2">
         <v>1</v>
@@ -6442,11 +7025,14 @@
       <c r="G194" s="2">
         <v>150</v>
       </c>
-      <c r="H194" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="H194">
+        <v>15</v>
+      </c>
+      <c r="I194" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="2">
         <v>190</v>
       </c>
@@ -6454,10 +7040,10 @@
         <v>190</v>
       </c>
       <c r="D195" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
@@ -6465,11 +7051,14 @@
       <c r="G195" s="2">
         <v>150</v>
       </c>
-      <c r="H195" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="H195">
+        <v>15</v>
+      </c>
+      <c r="I195" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="2">
         <v>191</v>
       </c>
@@ -6477,10 +7066,10 @@
         <v>191</v>
       </c>
       <c r="D196" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
@@ -6488,11 +7077,14 @@
       <c r="G196" s="2">
         <v>150</v>
       </c>
-      <c r="H196" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="H196">
+        <v>15</v>
+      </c>
+      <c r="I196" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="2">
         <v>192</v>
       </c>
@@ -6500,10 +7092,10 @@
         <v>192</v>
       </c>
       <c r="D197" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
@@ -6511,11 +7103,14 @@
       <c r="G197" s="2">
         <v>150</v>
       </c>
-      <c r="H197" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="H197">
+        <v>15</v>
+      </c>
+      <c r="I197" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="2">
         <v>193</v>
       </c>
@@ -6523,10 +7118,10 @@
         <v>193</v>
       </c>
       <c r="D198" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F198" s="2">
         <v>1</v>
@@ -6534,11 +7129,14 @@
       <c r="G198" s="2">
         <v>150</v>
       </c>
-      <c r="H198" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="H198">
+        <v>15</v>
+      </c>
+      <c r="I198" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="2">
         <v>194</v>
       </c>
@@ -6546,10 +7144,10 @@
         <v>194</v>
       </c>
       <c r="D199" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F199" s="2">
         <v>1</v>
@@ -6557,11 +7155,14 @@
       <c r="G199" s="2">
         <v>150</v>
       </c>
-      <c r="H199" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="H199">
+        <v>15</v>
+      </c>
+      <c r="I199" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="2">
         <v>195</v>
       </c>
@@ -6569,10 +7170,10 @@
         <v>195</v>
       </c>
       <c r="D200" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F200" s="2">
         <v>1</v>
@@ -6580,11 +7181,14 @@
       <c r="G200" s="2">
         <v>150</v>
       </c>
-      <c r="H200" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="H200">
+        <v>15</v>
+      </c>
+      <c r="I200" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>196</v>
       </c>
@@ -6592,10 +7196,10 @@
         <v>196</v>
       </c>
       <c r="D201" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F201" s="2">
         <v>1</v>
@@ -6603,11 +7207,14 @@
       <c r="G201" s="2">
         <v>150</v>
       </c>
-      <c r="H201" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="H201">
+        <v>15</v>
+      </c>
+      <c r="I201" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>197</v>
       </c>
@@ -6615,10 +7222,10 @@
         <v>197</v>
       </c>
       <c r="D202" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F202" s="2">
         <v>1</v>
@@ -6626,11 +7233,14 @@
       <c r="G202" s="2">
         <v>150</v>
       </c>
-      <c r="H202" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="H202">
+        <v>15</v>
+      </c>
+      <c r="I202" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="2">
         <v>198</v>
       </c>
@@ -6638,10 +7248,10 @@
         <v>198</v>
       </c>
       <c r="D203" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F203" s="2">
         <v>1</v>
@@ -6649,11 +7259,14 @@
       <c r="G203" s="2">
         <v>150</v>
       </c>
-      <c r="H203" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="H203">
+        <v>15</v>
+      </c>
+      <c r="I203" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="2">
         <v>199</v>
       </c>
@@ -6661,10 +7274,10 @@
         <v>199</v>
       </c>
       <c r="D204" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F204" s="2">
         <v>1</v>
@@ -6672,11 +7285,14 @@
       <c r="G204" s="2">
         <v>150</v>
       </c>
-      <c r="H204" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="H204">
+        <v>15</v>
+      </c>
+      <c r="I204" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="2">
         <v>200</v>
       </c>
@@ -6684,10 +7300,10 @@
         <v>200</v>
       </c>
       <c r="D205" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F205" s="2">
         <v>1</v>
@@ -6695,11 +7311,14 @@
       <c r="G205" s="2">
         <v>150</v>
       </c>
-      <c r="H205" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="H205">
+        <v>15</v>
+      </c>
+      <c r="I205" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="2">
         <v>201</v>
       </c>
@@ -6707,10 +7326,10 @@
         <v>201</v>
       </c>
       <c r="D206" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F206" s="2">
         <v>1</v>
@@ -6718,11 +7337,14 @@
       <c r="G206" s="2">
         <v>150</v>
       </c>
-      <c r="H206" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="H206">
+        <v>15</v>
+      </c>
+      <c r="I206" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="2">
         <v>202</v>
       </c>
@@ -6730,10 +7352,10 @@
         <v>202</v>
       </c>
       <c r="D207" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F207" s="2">
         <v>1</v>
@@ -6741,11 +7363,14 @@
       <c r="G207" s="2">
         <v>150</v>
       </c>
-      <c r="H207" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="H207">
+        <v>15</v>
+      </c>
+      <c r="I207" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="2">
         <v>203</v>
       </c>
@@ -6753,10 +7378,10 @@
         <v>203</v>
       </c>
       <c r="D208" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F208" s="2">
         <v>1</v>
@@ -6764,11 +7389,14 @@
       <c r="G208" s="2">
         <v>150</v>
       </c>
-      <c r="H208" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="H208">
+        <v>15</v>
+      </c>
+      <c r="I208" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="2">
         <v>204</v>
       </c>
@@ -6776,10 +7404,10 @@
         <v>204</v>
       </c>
       <c r="D209" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F209" s="2">
         <v>1</v>
@@ -6787,11 +7415,14 @@
       <c r="G209" s="2">
         <v>150</v>
       </c>
-      <c r="H209" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="H209">
+        <v>15</v>
+      </c>
+      <c r="I209" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="2">
         <v>205</v>
       </c>
@@ -6799,10 +7430,10 @@
         <v>205</v>
       </c>
       <c r="D210" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F210" s="2">
         <v>1</v>
@@ -6810,11 +7441,14 @@
       <c r="G210" s="2">
         <v>150</v>
       </c>
-      <c r="H210" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="H210">
+        <v>15</v>
+      </c>
+      <c r="I210" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="2">
         <v>206</v>
       </c>
@@ -6825,10 +7459,10 @@
         <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F211" s="2">
         <v>2</v>
@@ -6836,11 +7470,14 @@
       <c r="G211" s="2">
         <v>500</v>
       </c>
-      <c r="H211" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="H211">
+        <v>7</v>
+      </c>
+      <c r="I211" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="2">
         <v>207</v>
       </c>
@@ -6851,10 +7488,10 @@
         <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F212" s="2">
         <v>2</v>
@@ -6862,11 +7499,14 @@
       <c r="G212" s="2">
         <v>500</v>
       </c>
-      <c r="H212" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="H212">
+        <v>7</v>
+      </c>
+      <c r="I212" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="2">
         <v>208</v>
       </c>
@@ -6877,10 +7517,10 @@
         <v>50</v>
       </c>
       <c r="D213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F213" s="2">
         <v>2</v>
@@ -6888,11 +7528,14 @@
       <c r="G213" s="2">
         <v>500</v>
       </c>
-      <c r="H213" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="H213">
+        <v>7</v>
+      </c>
+      <c r="I213" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="2">
         <v>209</v>
       </c>
@@ -6903,10 +7546,10 @@
         <v>60</v>
       </c>
       <c r="D214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F214" s="2">
         <v>2</v>
@@ -6914,11 +7557,14 @@
       <c r="G214" s="2">
         <v>500</v>
       </c>
-      <c r="H214" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="H214">
+        <v>7</v>
+      </c>
+      <c r="I214" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="2">
         <v>210</v>
       </c>
@@ -6929,10 +7575,10 @@
         <v>70</v>
       </c>
       <c r="D215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F215" s="2">
         <v>2</v>
@@ -6940,11 +7586,14 @@
       <c r="G215" s="2">
         <v>500</v>
       </c>
-      <c r="H215" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="H215">
+        <v>7</v>
+      </c>
+      <c r="I215" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="2">
         <v>211</v>
       </c>
@@ -6955,10 +7604,10 @@
         <v>80</v>
       </c>
       <c r="D216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F216" s="2">
         <v>2</v>
@@ -6966,11 +7615,14 @@
       <c r="G216" s="2">
         <v>500</v>
       </c>
-      <c r="H216" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="H216">
+        <v>7</v>
+      </c>
+      <c r="I216" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="2">
         <v>212</v>
       </c>
@@ -6981,10 +7633,10 @@
         <v>90</v>
       </c>
       <c r="D217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F217" s="2">
         <v>2</v>
@@ -6992,11 +7644,14 @@
       <c r="G217" s="2">
         <v>500</v>
       </c>
-      <c r="H217" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="H217">
+        <v>7</v>
+      </c>
+      <c r="I217" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="2">
         <v>213</v>
       </c>
@@ -7007,10 +7662,10 @@
         <v>100</v>
       </c>
       <c r="D218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F218" s="2">
         <v>2</v>
@@ -7018,11 +7673,14 @@
       <c r="G218" s="2">
         <v>500</v>
       </c>
-      <c r="H218" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="H218">
+        <v>7</v>
+      </c>
+      <c r="I218" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="2">
         <v>214</v>
       </c>
@@ -7033,10 +7691,10 @@
         <v>110</v>
       </c>
       <c r="D219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F219" s="2">
         <v>2</v>
@@ -7044,11 +7702,14 @@
       <c r="G219" s="2">
         <v>500</v>
       </c>
-      <c r="H219" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="H219">
+        <v>7</v>
+      </c>
+      <c r="I219" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="2">
         <v>215</v>
       </c>
@@ -7059,10 +7720,10 @@
         <v>120</v>
       </c>
       <c r="D220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F220" s="2">
         <v>2</v>
@@ -7070,11 +7731,14 @@
       <c r="G220" s="2">
         <v>500</v>
       </c>
-      <c r="H220" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="H220">
+        <v>7</v>
+      </c>
+      <c r="I220" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="2">
         <v>216</v>
       </c>
@@ -7085,10 +7749,10 @@
         <v>130</v>
       </c>
       <c r="D221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F221" s="2">
         <v>2</v>
@@ -7096,11 +7760,14 @@
       <c r="G221" s="2">
         <v>500</v>
       </c>
-      <c r="H221" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="H221">
+        <v>7</v>
+      </c>
+      <c r="I221" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="2">
         <v>217</v>
       </c>
@@ -7111,10 +7778,10 @@
         <v>140</v>
       </c>
       <c r="D222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F222" s="2">
         <v>2</v>
@@ -7122,11 +7789,14 @@
       <c r="G222" s="2">
         <v>500</v>
       </c>
-      <c r="H222" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="H222">
+        <v>7</v>
+      </c>
+      <c r="I222" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="2">
         <v>218</v>
       </c>
@@ -7137,10 +7807,10 @@
         <v>150</v>
       </c>
       <c r="D223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F223" s="2">
         <v>2</v>
@@ -7148,11 +7818,14 @@
       <c r="G223" s="2">
         <v>500</v>
       </c>
-      <c r="H223" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="H223">
+        <v>7</v>
+      </c>
+      <c r="I223" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="2">
         <v>219</v>
       </c>
@@ -7163,10 +7836,10 @@
         <v>160</v>
       </c>
       <c r="D224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F224" s="2">
         <v>2</v>
@@ -7174,11 +7847,14 @@
       <c r="G224" s="2">
         <v>500</v>
       </c>
-      <c r="H224" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="H224">
+        <v>7</v>
+      </c>
+      <c r="I224" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="2">
         <v>220</v>
       </c>
@@ -7189,10 +7865,10 @@
         <v>170</v>
       </c>
       <c r="D225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F225" s="2">
         <v>2</v>
@@ -7200,11 +7876,14 @@
       <c r="G225" s="2">
         <v>500</v>
       </c>
-      <c r="H225" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="H225">
+        <v>7</v>
+      </c>
+      <c r="I225" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="2">
         <v>221</v>
       </c>
@@ -7215,10 +7894,10 @@
         <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F226" s="2">
         <v>2</v>
@@ -7226,11 +7905,14 @@
       <c r="G226" s="2">
         <v>500</v>
       </c>
-      <c r="H226" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="H226">
+        <v>7</v>
+      </c>
+      <c r="I226" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="2">
         <v>222</v>
       </c>
@@ -7241,10 +7923,10 @@
         <v>190</v>
       </c>
       <c r="D227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F227" s="2">
         <v>2</v>
@@ -7252,11 +7934,14 @@
       <c r="G227" s="2">
         <v>500</v>
       </c>
-      <c r="H227" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="H227">
+        <v>7</v>
+      </c>
+      <c r="I227" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="2">
         <v>223</v>
       </c>
@@ -7267,10 +7952,10 @@
         <v>200</v>
       </c>
       <c r="D228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F228" s="2">
         <v>2</v>
@@ -7278,11 +7963,14 @@
       <c r="G228" s="2">
         <v>500</v>
       </c>
-      <c r="H228" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="H228">
+        <v>7</v>
+      </c>
+      <c r="I228" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="2">
         <v>224</v>
       </c>
@@ -7293,10 +7981,10 @@
         <v>210</v>
       </c>
       <c r="D229" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F229" s="2">
         <v>2</v>
@@ -7304,11 +7992,14 @@
       <c r="G229" s="2">
         <v>500</v>
       </c>
-      <c r="H229" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="H229">
+        <v>7</v>
+      </c>
+      <c r="I229" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="2">
         <v>225</v>
       </c>
@@ -7319,10 +8010,10 @@
         <v>220</v>
       </c>
       <c r="D230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F230" s="2">
         <v>2</v>
@@ -7330,11 +8021,14 @@
       <c r="G230" s="2">
         <v>500</v>
       </c>
-      <c r="H230" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="H230">
+        <v>7</v>
+      </c>
+      <c r="I230" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="2">
         <v>226</v>
       </c>
@@ -7345,10 +8039,10 @@
         <v>230</v>
       </c>
       <c r="D231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F231" s="2">
         <v>2</v>
@@ -7356,11 +8050,14 @@
       <c r="G231" s="2">
         <v>500</v>
       </c>
-      <c r="H231" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="H231">
+        <v>7</v>
+      </c>
+      <c r="I231" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="2">
         <v>227</v>
       </c>
@@ -7371,10 +8068,10 @@
         <v>240</v>
       </c>
       <c r="D232" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F232" s="2">
         <v>2</v>
@@ -7382,11 +8079,14 @@
       <c r="G232" s="2">
         <v>500</v>
       </c>
-      <c r="H232" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="H232">
+        <v>7</v>
+      </c>
+      <c r="I232" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="2">
         <v>228</v>
       </c>
@@ -7397,10 +8097,10 @@
         <v>250</v>
       </c>
       <c r="D233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F233" s="2">
         <v>2</v>
@@ -7408,11 +8108,14 @@
       <c r="G233" s="2">
         <v>500</v>
       </c>
-      <c r="H233" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="H233">
+        <v>7</v>
+      </c>
+      <c r="I233" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="2">
         <v>229</v>
       </c>
@@ -7423,10 +8126,10 @@
         <v>260</v>
       </c>
       <c r="D234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F234" s="2">
         <v>2</v>
@@ -7434,11 +8137,14 @@
       <c r="G234" s="2">
         <v>500</v>
       </c>
-      <c r="H234" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="H234">
+        <v>7</v>
+      </c>
+      <c r="I234" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="2">
         <v>230</v>
       </c>
@@ -7449,10 +8155,10 @@
         <v>270</v>
       </c>
       <c r="D235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F235" s="2">
         <v>2</v>
@@ -7460,11 +8166,14 @@
       <c r="G235" s="2">
         <v>500</v>
       </c>
-      <c r="H235" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="H235">
+        <v>7</v>
+      </c>
+      <c r="I235" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="2">
         <v>231</v>
       </c>
@@ -7475,10 +8184,10 @@
         <v>280</v>
       </c>
       <c r="D236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F236" s="2">
         <v>2</v>
@@ -7486,11 +8195,14 @@
       <c r="G236" s="2">
         <v>500</v>
       </c>
-      <c r="H236" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="H236">
+        <v>7</v>
+      </c>
+      <c r="I236" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="2">
         <v>232</v>
       </c>
@@ -7501,10 +8213,10 @@
         <v>290</v>
       </c>
       <c r="D237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F237" s="2">
         <v>2</v>
@@ -7512,11 +8224,14 @@
       <c r="G237" s="2">
         <v>500</v>
       </c>
-      <c r="H237" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="H237">
+        <v>7</v>
+      </c>
+      <c r="I237" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="2">
         <v>233</v>
       </c>
@@ -7527,10 +8242,10 @@
         <v>300</v>
       </c>
       <c r="D238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F238" s="2">
         <v>2</v>
@@ -7538,11 +8253,14 @@
       <c r="G238" s="2">
         <v>500</v>
       </c>
-      <c r="H238" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="H238">
+        <v>7</v>
+      </c>
+      <c r="I238" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="2">
         <v>234</v>
       </c>
@@ -7553,10 +8271,10 @@
         <v>310</v>
       </c>
       <c r="D239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F239" s="2">
         <v>2</v>
@@ -7564,11 +8282,14 @@
       <c r="G239" s="2">
         <v>500</v>
       </c>
-      <c r="H239" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="H239">
+        <v>7</v>
+      </c>
+      <c r="I239" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="2">
         <v>235</v>
       </c>
@@ -7579,10 +8300,10 @@
         <v>320</v>
       </c>
       <c r="D240" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F240" s="2">
         <v>2</v>
@@ -7590,11 +8311,14 @@
       <c r="G240" s="2">
         <v>500</v>
       </c>
-      <c r="H240" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="H240">
+        <v>7</v>
+      </c>
+      <c r="I240" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="2">
         <v>236</v>
       </c>
@@ -7602,10 +8326,10 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F241" s="2">
         <v>3</v>
@@ -7613,11 +8337,14 @@
       <c r="G241" s="2">
         <v>10</v>
       </c>
-      <c r="H241" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="2">
         <v>237</v>
       </c>
@@ -7625,10 +8352,10 @@
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F242" s="2">
         <v>3</v>
@@ -7636,11 +8363,14 @@
       <c r="G242" s="2">
         <v>10</v>
       </c>
-      <c r="H242" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="2">
         <v>238</v>
       </c>
@@ -7648,10 +8378,10 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F243" s="2">
         <v>3</v>
@@ -7659,11 +8389,14 @@
       <c r="G243" s="2">
         <v>10</v>
       </c>
-      <c r="H243" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="2">
         <v>239</v>
       </c>
@@ -7671,10 +8404,10 @@
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F244" s="2">
         <v>3</v>
@@ -7682,11 +8415,14 @@
       <c r="G244" s="2">
         <v>10</v>
       </c>
-      <c r="H244" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="2">
         <v>240</v>
       </c>
@@ -7694,10 +8430,10 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F245" s="2">
         <v>3</v>
@@ -7705,11 +8441,14 @@
       <c r="G245" s="2">
         <v>10</v>
       </c>
-      <c r="H245" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="2">
         <v>241</v>
       </c>
@@ -7717,10 +8456,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F246" s="2">
         <v>3</v>
@@ -7728,11 +8467,14 @@
       <c r="G246" s="2">
         <v>10</v>
       </c>
-      <c r="H246" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="2">
         <v>242</v>
       </c>
@@ -7740,10 +8482,10 @@
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F247" s="2">
         <v>3</v>
@@ -7751,11 +8493,14 @@
       <c r="G247" s="2">
         <v>10</v>
       </c>
-      <c r="H247" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="2">
         <v>243</v>
       </c>
@@ -7763,10 +8508,10 @@
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F248" s="2">
         <v>3</v>
@@ -7774,11 +8519,14 @@
       <c r="G248" s="2">
         <v>10</v>
       </c>
-      <c r="H248" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" s="2">
         <v>244</v>
       </c>
@@ -7786,10 +8534,10 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F249" s="2">
         <v>3</v>
@@ -7797,11 +8545,14 @@
       <c r="G249" s="2">
         <v>10</v>
       </c>
-      <c r="H249" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" s="2">
         <v>245</v>
       </c>
@@ -7809,10 +8560,10 @@
         <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F250" s="2">
         <v>3</v>
@@ -7820,21 +8571,24 @@
       <c r="G250" s="2">
         <v>10</v>
       </c>
-      <c r="H250" s="2">
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:G2">
+  <conditionalFormatting sqref="D2:H2">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="K2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:G5 D1:G1">
+  <conditionalFormatting sqref="D5:H5 D1:H1">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J1">
+  <conditionalFormatting sqref="K5 K1">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/配表/波次表.xlsx
+++ b/配表/波次表.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\GrowCastle\配表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C444BA8-8E60-4B4B-8A10-057D2279DF10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WaveConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="255">
   <si>
     <t>序号</t>
   </si>
@@ -95,45 +88,9 @@
     <t>background</t>
   </si>
   <si>
-    <t>[[1001,15,10,1]]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[[1001,20,10,1]]</t>
-  </si>
-  <si>
-    <t>[[1001,15,10,1],[2001,7,11,1]]</t>
-  </si>
-  <si>
-    <t>[[1001,16,11,1],[2001,8,11,1]]</t>
-  </si>
-  <si>
-    <t>[[1001,15,11,1],[2001,8,12,1]]</t>
-  </si>
-  <si>
-    <t>[21001,1,226,5]</t>
-  </si>
-  <si>
-    <t>[[1001,20,11,1],[2001,10,12,1]]</t>
-  </si>
-  <si>
-    <t>[[1001,20,12,1],[2001,10,13,1]]</t>
-  </si>
-  <si>
-    <t>[[2001,15,13,1],[3001,15,14,1],[7001,10,15,1]]</t>
-  </si>
-  <si>
-    <t>[[1001,5,12,1],[2001,15,13,1],[3001,15,14,1],[7001,10,15,1]]</t>
-  </si>
-  <si>
-    <t>[[2001,15,14,1],[4001,15,16,1],[7001,14,16,1]]</t>
-  </si>
-  <si>
-    <t>[21002,1,800,5]</t>
-  </si>
-  <si>
     <t>[[1001,10,13,1],[2001,10,14,1],[4001,10,16,1],[5001,8,16,1],[7001,12,16,1]]</t>
   </si>
   <si>
@@ -795,19 +752,57 @@
   </si>
   <si>
     <t>[[310001,1,0]]</t>
+  </si>
+  <si>
+    <t>[[1001,15,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,20,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,15,2,1],[2001,7,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,16,2,1],[2001,8,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,15,2,1],[2001,8,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,20,2,1],[2001,10,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2001,15,2,1],[3001,15,2,1],[7001,10,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1001,5,2,1],[2001,15,2,1],[3001,15,2,1],[7001,10,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2001,15,2,1],[4001,15,2,1],[7001,14,2,1]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21001,1,50,5]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21002,1,100,5]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +814,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -826,154 +822,25 @@
       <sz val="10.5"/>
       <color rgb="FFCCCCCC"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,194 +853,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1181,255 +862,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,59 +893,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1520,34 +947,151 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1558,7 +1102,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1586,154 +1130,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
-      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="6"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="5"/>
+      <tableStyleElement type="pageFieldValues" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1983,31 +1413,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="97.35" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="121.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="17.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +1466,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2053,7 +1483,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2070,7 +1500,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2085,7 +1515,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="14.25" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2116,18 +1546,18 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="D6" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2142,18 +1572,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
+      <c r="D7" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -2168,18 +1598,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
+      <c r="D8" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2194,18 +1624,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
+      <c r="D9" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2220,18 +1650,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
+      <c r="D10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -2246,18 +1676,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="D11" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2272,18 +1702,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
+      <c r="D12" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2298,18 +1728,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
+      <c r="D13" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2324,18 +1754,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
+      <c r="D14" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -2350,18 +1780,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
+      <c r="D15" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -2376,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -2384,10 +1814,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -2402,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -2410,10 +1840,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -2428,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -2436,10 +1866,10 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2454,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -2462,10 +1892,10 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -2480,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -2488,10 +1918,10 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -2506,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -2514,10 +1944,10 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2532,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -2540,10 +1970,10 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -2558,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2566,10 +1996,10 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -2584,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2592,10 +2022,10 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -2610,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2618,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2636,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2644,10 +2074,10 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -2662,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2670,10 +2100,10 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -2688,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2696,10 +2126,10 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -2714,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2722,10 +2152,10 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -2740,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:9">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -2749,10 +2179,10 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
@@ -2767,7 +2197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -2775,10 +2205,10 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -2793,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -2801,10 +2231,10 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -2819,7 +2249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -2827,10 +2257,10 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -2845,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -2853,10 +2283,10 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -2871,7 +2301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -2879,10 +2309,10 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -2897,7 +2327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -2905,10 +2335,10 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -2923,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -2931,10 +2361,10 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -2949,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -2957,10 +2387,10 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -2975,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -2983,10 +2413,10 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -3001,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -3009,10 +2439,10 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -3027,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -3035,10 +2465,10 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -3053,7 +2483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -3061,10 +2491,10 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3079,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -3087,10 +2517,10 @@
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3105,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -3113,10 +2543,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -3131,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -3139,10 +2569,10 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
@@ -3157,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -3165,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -3183,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -3191,10 +2621,10 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3209,7 +2639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -3217,10 +2647,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -3235,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -3243,10 +2673,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3261,7 +2691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:9">
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -3270,10 +2700,10 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
@@ -3288,7 +2718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -3296,10 +2726,10 @@
         <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -3314,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -3322,10 +2752,10 @@
         <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -3340,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -3348,10 +2778,10 @@
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -3366,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -3374,10 +2804,10 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -3392,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -3400,10 +2830,10 @@
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -3418,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -3426,10 +2856,10 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -3444,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -3452,10 +2882,10 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -3470,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -3478,10 +2908,10 @@
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -3496,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -3504,10 +2934,10 @@
         <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
@@ -3522,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -3530,10 +2960,10 @@
         <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -3548,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -3556,10 +2986,10 @@
         <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -3574,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -3582,10 +3012,10 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
@@ -3600,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -3608,10 +3038,10 @@
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -3626,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -3634,10 +3064,10 @@
         <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -3652,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -3660,10 +3090,10 @@
         <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -3678,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -3686,10 +3116,10 @@
         <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
@@ -3704,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -3712,10 +3142,10 @@
         <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
@@ -3730,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -3738,10 +3168,10 @@
         <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -3756,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -3764,10 +3194,10 @@
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -3782,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -3790,10 +3220,10 @@
         <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -3808,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -3816,10 +3246,10 @@
         <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -3834,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -3842,10 +3272,10 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
@@ -3860,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -3868,10 +3298,10 @@
         <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
@@ -3886,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -3894,10 +3324,10 @@
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -3912,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -3920,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
@@ -3938,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -3946,10 +3376,10 @@
         <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -3964,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -3972,10 +3402,10 @@
         <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -3990,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -3998,10 +3428,10 @@
         <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
@@ -4016,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -4024,10 +3454,10 @@
         <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
@@ -4042,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -4050,10 +3480,10 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -4068,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -4076,10 +3506,10 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -4094,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -4102,10 +3532,10 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -4120,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -4128,10 +3558,10 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -4146,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -4154,10 +3584,10 @@
         <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
@@ -4172,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -4180,10 +3610,10 @@
         <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
@@ -4198,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -4206,10 +3636,10 @@
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
@@ -4224,7 +3654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -4232,10 +3662,10 @@
         <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
@@ -4250,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -4258,10 +3688,10 @@
         <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
@@ -4276,7 +3706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -4284,10 +3714,10 @@
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -4302,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -4310,10 +3740,10 @@
         <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
@@ -4328,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -4336,10 +3766,10 @@
         <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
@@ -4354,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -4362,10 +3792,10 @@
         <v>87</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
@@ -4380,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -4388,10 +3818,10 @@
         <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
@@ -4406,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -4414,10 +3844,10 @@
         <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
@@ -4432,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -4440,10 +3870,10 @@
         <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
@@ -4458,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -4466,10 +3896,10 @@
         <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
@@ -4484,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -4492,10 +3922,10 @@
         <v>92</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
@@ -4510,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -4518,10 +3948,10 @@
         <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
@@ -4536,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -4544,10 +3974,10 @@
         <v>94</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
@@ -4562,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -4570,10 +4000,10 @@
         <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
@@ -4588,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -4596,10 +4026,10 @@
         <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
@@ -4614,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -4622,10 +4052,10 @@
         <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
@@ -4640,7 +4070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -4648,10 +4078,10 @@
         <v>98</v>
       </c>
       <c r="D103" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
@@ -4666,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -4674,10 +4104,10 @@
         <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
@@ -4692,7 +4122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -4700,10 +4130,10 @@
         <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
@@ -4718,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>101</v>
       </c>
@@ -4726,10 +4156,10 @@
         <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
@@ -4744,7 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>102</v>
       </c>
@@ -4752,10 +4182,10 @@
         <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
@@ -4770,7 +4200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>103</v>
       </c>
@@ -4778,10 +4208,10 @@
         <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
@@ -4796,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>104</v>
       </c>
@@ -4804,10 +4234,10 @@
         <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
@@ -4822,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>105</v>
       </c>
@@ -4830,10 +4260,10 @@
         <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
@@ -4848,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>106</v>
       </c>
@@ -4856,10 +4286,10 @@
         <v>106</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
@@ -4874,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>107</v>
       </c>
@@ -4882,10 +4312,10 @@
         <v>107</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
@@ -4900,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>108</v>
       </c>
@@ -4908,10 +4338,10 @@
         <v>108</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
@@ -4926,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>109</v>
       </c>
@@ -4934,10 +4364,10 @@
         <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
@@ -4952,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>110</v>
       </c>
@@ -4960,10 +4390,10 @@
         <v>110</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
@@ -4978,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>111</v>
       </c>
@@ -4986,10 +4416,10 @@
         <v>111</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
@@ -5004,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>112</v>
       </c>
@@ -5012,10 +4442,10 @@
         <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
@@ -5030,7 +4460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>113</v>
       </c>
@@ -5038,10 +4468,10 @@
         <v>113</v>
       </c>
       <c r="D118" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
@@ -5056,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>114</v>
       </c>
@@ -5064,10 +4494,10 @@
         <v>114</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
@@ -5082,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>115</v>
       </c>
@@ -5090,10 +4520,10 @@
         <v>115</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
@@ -5108,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>116</v>
       </c>
@@ -5116,10 +4546,10 @@
         <v>116</v>
       </c>
       <c r="D121" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
@@ -5134,7 +4564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>117</v>
       </c>
@@ -5142,10 +4572,10 @@
         <v>117</v>
       </c>
       <c r="D122" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
@@ -5160,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>118</v>
       </c>
@@ -5168,10 +4598,10 @@
         <v>118</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
@@ -5186,7 +4616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>119</v>
       </c>
@@ -5194,10 +4624,10 @@
         <v>119</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
@@ -5212,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>120</v>
       </c>
@@ -5220,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
@@ -5238,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>121</v>
       </c>
@@ -5246,10 +4676,10 @@
         <v>121</v>
       </c>
       <c r="D126" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
@@ -5264,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>122</v>
       </c>
@@ -5272,10 +4702,10 @@
         <v>122</v>
       </c>
       <c r="D127" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
@@ -5290,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>123</v>
       </c>
@@ -5298,10 +4728,10 @@
         <v>123</v>
       </c>
       <c r="D128" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
@@ -5316,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>124</v>
       </c>
@@ -5324,10 +4754,10 @@
         <v>124</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
@@ -5342,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>125</v>
       </c>
@@ -5350,10 +4780,10 @@
         <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
@@ -5368,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>126</v>
       </c>
@@ -5376,10 +4806,10 @@
         <v>126</v>
       </c>
       <c r="D131" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
@@ -5394,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>127</v>
       </c>
@@ -5402,10 +4832,10 @@
         <v>127</v>
       </c>
       <c r="D132" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
@@ -5420,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>128</v>
       </c>
@@ -5428,10 +4858,10 @@
         <v>128</v>
       </c>
       <c r="D133" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
@@ -5446,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>129</v>
       </c>
@@ -5454,10 +4884,10 @@
         <v>129</v>
       </c>
       <c r="D134" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
@@ -5472,7 +4902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>130</v>
       </c>
@@ -5480,10 +4910,10 @@
         <v>130</v>
       </c>
       <c r="D135" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
@@ -5498,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>131</v>
       </c>
@@ -5506,10 +4936,10 @@
         <v>131</v>
       </c>
       <c r="D136" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
@@ -5524,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>132</v>
       </c>
@@ -5532,10 +4962,10 @@
         <v>132</v>
       </c>
       <c r="D137" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
@@ -5550,7 +4980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>133</v>
       </c>
@@ -5558,10 +4988,10 @@
         <v>133</v>
       </c>
       <c r="D138" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
@@ -5576,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>134</v>
       </c>
@@ -5584,10 +5014,10 @@
         <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
@@ -5602,7 +5032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>135</v>
       </c>
@@ -5610,10 +5040,10 @@
         <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
@@ -5628,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>136</v>
       </c>
@@ -5636,10 +5066,10 @@
         <v>136</v>
       </c>
       <c r="D141" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
@@ -5654,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>137</v>
       </c>
@@ -5662,10 +5092,10 @@
         <v>137</v>
       </c>
       <c r="D142" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
@@ -5680,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>138</v>
       </c>
@@ -5688,10 +5118,10 @@
         <v>138</v>
       </c>
       <c r="D143" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
@@ -5706,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>139</v>
       </c>
@@ -5714,10 +5144,10 @@
         <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
@@ -5732,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>140</v>
       </c>
@@ -5740,10 +5170,10 @@
         <v>140</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
@@ -5758,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>141</v>
       </c>
@@ -5766,10 +5196,10 @@
         <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
@@ -5784,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>142</v>
       </c>
@@ -5792,10 +5222,10 @@
         <v>142</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
@@ -5810,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>143</v>
       </c>
@@ -5818,10 +5248,10 @@
         <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
@@ -5836,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>144</v>
       </c>
@@ -5844,10 +5274,10 @@
         <v>144</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
@@ -5862,7 +5292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>145</v>
       </c>
@@ -5870,10 +5300,10 @@
         <v>145</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
@@ -5888,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>146</v>
       </c>
@@ -5896,10 +5326,10 @@
         <v>146</v>
       </c>
       <c r="D151" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
@@ -5914,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>147</v>
       </c>
@@ -5922,10 +5352,10 @@
         <v>147</v>
       </c>
       <c r="D152" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
@@ -5940,7 +5370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>148</v>
       </c>
@@ -5948,10 +5378,10 @@
         <v>148</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
@@ -5966,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>149</v>
       </c>
@@ -5974,10 +5404,10 @@
         <v>149</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
@@ -5992,7 +5422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>150</v>
       </c>
@@ -6000,10 +5430,10 @@
         <v>150</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
@@ -6018,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>151</v>
       </c>
@@ -6026,10 +5456,10 @@
         <v>151</v>
       </c>
       <c r="D156" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F156" s="2">
         <v>1</v>
@@ -6044,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>152</v>
       </c>
@@ -6052,10 +5482,10 @@
         <v>152</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F157" s="2">
         <v>1</v>
@@ -6070,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>153</v>
       </c>
@@ -6078,10 +5508,10 @@
         <v>153</v>
       </c>
       <c r="D158" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F158" s="2">
         <v>1</v>
@@ -6096,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>154</v>
       </c>
@@ -6104,10 +5534,10 @@
         <v>154</v>
       </c>
       <c r="D159" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F159" s="2">
         <v>1</v>
@@ -6122,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>155</v>
       </c>
@@ -6130,10 +5560,10 @@
         <v>155</v>
       </c>
       <c r="D160" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
@@ -6148,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>156</v>
       </c>
@@ -6156,10 +5586,10 @@
         <v>156</v>
       </c>
       <c r="D161" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
@@ -6174,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>157</v>
       </c>
@@ -6182,10 +5612,10 @@
         <v>157</v>
       </c>
       <c r="D162" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162" s="2">
         <v>1</v>
@@ -6200,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>158</v>
       </c>
@@ -6208,10 +5638,10 @@
         <v>158</v>
       </c>
       <c r="D163" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
@@ -6226,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>159</v>
       </c>
@@ -6234,10 +5664,10 @@
         <v>159</v>
       </c>
       <c r="D164" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
@@ -6252,7 +5682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>160</v>
       </c>
@@ -6260,10 +5690,10 @@
         <v>160</v>
       </c>
       <c r="D165" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
@@ -6278,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>161</v>
       </c>
@@ -6286,10 +5716,10 @@
         <v>161</v>
       </c>
       <c r="D166" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
@@ -6304,7 +5734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>162</v>
       </c>
@@ -6312,10 +5742,10 @@
         <v>162</v>
       </c>
       <c r="D167" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
@@ -6330,7 +5760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>163</v>
       </c>
@@ -6338,10 +5768,10 @@
         <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F168" s="2">
         <v>1</v>
@@ -6356,7 +5786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>164</v>
       </c>
@@ -6364,10 +5794,10 @@
         <v>164</v>
       </c>
       <c r="D169" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F169" s="2">
         <v>1</v>
@@ -6382,7 +5812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>165</v>
       </c>
@@ -6390,10 +5820,10 @@
         <v>165</v>
       </c>
       <c r="D170" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
@@ -6408,7 +5838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>166</v>
       </c>
@@ -6416,10 +5846,10 @@
         <v>166</v>
       </c>
       <c r="D171" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F171" s="2">
         <v>1</v>
@@ -6434,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>167</v>
       </c>
@@ -6442,10 +5872,10 @@
         <v>167</v>
       </c>
       <c r="D172" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F172" s="2">
         <v>1</v>
@@ -6460,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>168</v>
       </c>
@@ -6468,10 +5898,10 @@
         <v>168</v>
       </c>
       <c r="D173" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F173" s="2">
         <v>1</v>
@@ -6486,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>169</v>
       </c>
@@ -6494,10 +5924,10 @@
         <v>169</v>
       </c>
       <c r="D174" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F174" s="2">
         <v>1</v>
@@ -6512,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>170</v>
       </c>
@@ -6520,10 +5950,10 @@
         <v>170</v>
       </c>
       <c r="D175" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F175" s="2">
         <v>1</v>
@@ -6538,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>171</v>
       </c>
@@ -6546,10 +5976,10 @@
         <v>171</v>
       </c>
       <c r="D176" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F176" s="2">
         <v>1</v>
@@ -6564,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>172</v>
       </c>
@@ -6572,10 +6002,10 @@
         <v>172</v>
       </c>
       <c r="D177" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F177" s="2">
         <v>1</v>
@@ -6590,7 +6020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>173</v>
       </c>
@@ -6598,10 +6028,10 @@
         <v>173</v>
       </c>
       <c r="D178" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F178" s="2">
         <v>1</v>
@@ -6616,7 +6046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>174</v>
       </c>
@@ -6624,10 +6054,10 @@
         <v>174</v>
       </c>
       <c r="D179" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F179" s="2">
         <v>1</v>
@@ -6642,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -6650,10 +6080,10 @@
         <v>175</v>
       </c>
       <c r="D180" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
@@ -6668,7 +6098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>176</v>
       </c>
@@ -6676,10 +6106,10 @@
         <v>176</v>
       </c>
       <c r="D181" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
@@ -6694,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>177</v>
       </c>
@@ -6702,10 +6132,10 @@
         <v>177</v>
       </c>
       <c r="D182" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
@@ -6720,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>178</v>
       </c>
@@ -6728,10 +6158,10 @@
         <v>178</v>
       </c>
       <c r="D183" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
@@ -6746,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>179</v>
       </c>
@@ -6754,10 +6184,10 @@
         <v>179</v>
       </c>
       <c r="D184" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
@@ -6772,7 +6202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>180</v>
       </c>
@@ -6780,10 +6210,10 @@
         <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
@@ -6798,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>181</v>
       </c>
@@ -6806,10 +6236,10 @@
         <v>181</v>
       </c>
       <c r="D186" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
@@ -6824,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>182</v>
       </c>
@@ -6832,10 +6262,10 @@
         <v>182</v>
       </c>
       <c r="D187" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F187" s="2">
         <v>1</v>
@@ -6850,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>183</v>
       </c>
@@ -6858,10 +6288,10 @@
         <v>183</v>
       </c>
       <c r="D188" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F188" s="2">
         <v>1</v>
@@ -6876,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>184</v>
       </c>
@@ -6884,10 +6314,10 @@
         <v>184</v>
       </c>
       <c r="D189" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F189" s="2">
         <v>1</v>
@@ -6902,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>185</v>
       </c>
@@ -6910,10 +6340,10 @@
         <v>185</v>
       </c>
       <c r="D190" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
@@ -6928,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>186</v>
       </c>
@@ -6936,10 +6366,10 @@
         <v>186</v>
       </c>
       <c r="D191" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F191" s="2">
         <v>1</v>
@@ -6954,7 +6384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>187</v>
       </c>
@@ -6962,10 +6392,10 @@
         <v>187</v>
       </c>
       <c r="D192" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F192" s="2">
         <v>1</v>
@@ -6980,7 +6410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>188</v>
       </c>
@@ -6988,10 +6418,10 @@
         <v>188</v>
       </c>
       <c r="D193" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F193" s="2">
         <v>1</v>
@@ -7006,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>189</v>
       </c>
@@ -7014,10 +6444,10 @@
         <v>189</v>
       </c>
       <c r="D194" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F194" s="2">
         <v>1</v>
@@ -7032,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>190</v>
       </c>
@@ -7040,10 +6470,10 @@
         <v>190</v>
       </c>
       <c r="D195" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
@@ -7058,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>191</v>
       </c>
@@ -7066,10 +6496,10 @@
         <v>191</v>
       </c>
       <c r="D196" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
@@ -7084,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>192</v>
       </c>
@@ -7092,10 +6522,10 @@
         <v>192</v>
       </c>
       <c r="D197" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
@@ -7110,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>193</v>
       </c>
@@ -7118,10 +6548,10 @@
         <v>193</v>
       </c>
       <c r="D198" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F198" s="2">
         <v>1</v>
@@ -7136,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>194</v>
       </c>
@@ -7144,10 +6574,10 @@
         <v>194</v>
       </c>
       <c r="D199" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F199" s="2">
         <v>1</v>
@@ -7162,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>195</v>
       </c>
@@ -7170,10 +6600,10 @@
         <v>195</v>
       </c>
       <c r="D200" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F200" s="2">
         <v>1</v>
@@ -7188,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>196</v>
       </c>
@@ -7196,10 +6626,10 @@
         <v>196</v>
       </c>
       <c r="D201" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F201" s="2">
         <v>1</v>
@@ -7214,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>197</v>
       </c>
@@ -7222,10 +6652,10 @@
         <v>197</v>
       </c>
       <c r="D202" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F202" s="2">
         <v>1</v>
@@ -7240,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>198</v>
       </c>
@@ -7248,10 +6678,10 @@
         <v>198</v>
       </c>
       <c r="D203" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F203" s="2">
         <v>1</v>
@@ -7266,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>199</v>
       </c>
@@ -7274,10 +6704,10 @@
         <v>199</v>
       </c>
       <c r="D204" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F204" s="2">
         <v>1</v>
@@ -7292,7 +6722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>200</v>
       </c>
@@ -7300,10 +6730,10 @@
         <v>200</v>
       </c>
       <c r="D205" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F205" s="2">
         <v>1</v>
@@ -7318,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>201</v>
       </c>
@@ -7326,10 +6756,10 @@
         <v>201</v>
       </c>
       <c r="D206" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F206" s="2">
         <v>1</v>
@@ -7344,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>202</v>
       </c>
@@ -7352,10 +6782,10 @@
         <v>202</v>
       </c>
       <c r="D207" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F207" s="2">
         <v>1</v>
@@ -7370,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>203</v>
       </c>
@@ -7378,10 +6808,10 @@
         <v>203</v>
       </c>
       <c r="D208" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F208" s="2">
         <v>1</v>
@@ -7396,7 +6826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>204</v>
       </c>
@@ -7404,10 +6834,10 @@
         <v>204</v>
       </c>
       <c r="D209" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F209" s="2">
         <v>1</v>
@@ -7422,7 +6852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>205</v>
       </c>
@@ -7430,10 +6860,10 @@
         <v>205</v>
       </c>
       <c r="D210" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F210" s="2">
         <v>1</v>
@@ -7448,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>206</v>
       </c>
@@ -7459,10 +6889,10 @@
         <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F211" s="2">
         <v>2</v>
@@ -7477,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>207</v>
       </c>
@@ -7488,10 +6918,10 @@
         <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F212" s="2">
         <v>2</v>
@@ -7506,7 +6936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>208</v>
       </c>
@@ -7517,10 +6947,10 @@
         <v>50</v>
       </c>
       <c r="D213" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F213" s="2">
         <v>2</v>
@@ -7535,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>209</v>
       </c>
@@ -7546,10 +6976,10 @@
         <v>60</v>
       </c>
       <c r="D214" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F214" s="2">
         <v>2</v>
@@ -7564,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>210</v>
       </c>
@@ -7575,10 +7005,10 @@
         <v>70</v>
       </c>
       <c r="D215" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F215" s="2">
         <v>2</v>
@@ -7593,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>211</v>
       </c>
@@ -7604,10 +7034,10 @@
         <v>80</v>
       </c>
       <c r="D216" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F216" s="2">
         <v>2</v>
@@ -7622,7 +7052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>212</v>
       </c>
@@ -7633,10 +7063,10 @@
         <v>90</v>
       </c>
       <c r="D217" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F217" s="2">
         <v>2</v>
@@ -7651,7 +7081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>213</v>
       </c>
@@ -7662,10 +7092,10 @@
         <v>100</v>
       </c>
       <c r="D218" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F218" s="2">
         <v>2</v>
@@ -7680,7 +7110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>214</v>
       </c>
@@ -7691,10 +7121,10 @@
         <v>110</v>
       </c>
       <c r="D219" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F219" s="2">
         <v>2</v>
@@ -7709,7 +7139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>215</v>
       </c>
@@ -7720,10 +7150,10 @@
         <v>120</v>
       </c>
       <c r="D220" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F220" s="2">
         <v>2</v>
@@ -7738,7 +7168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>216</v>
       </c>
@@ -7749,10 +7179,10 @@
         <v>130</v>
       </c>
       <c r="D221" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F221" s="2">
         <v>2</v>
@@ -7767,7 +7197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>217</v>
       </c>
@@ -7778,10 +7208,10 @@
         <v>140</v>
       </c>
       <c r="D222" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F222" s="2">
         <v>2</v>
@@ -7796,7 +7226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>218</v>
       </c>
@@ -7807,10 +7237,10 @@
         <v>150</v>
       </c>
       <c r="D223" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F223" s="2">
         <v>2</v>
@@ -7825,7 +7255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>219</v>
       </c>
@@ -7836,10 +7266,10 @@
         <v>160</v>
       </c>
       <c r="D224" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F224" s="2">
         <v>2</v>
@@ -7854,7 +7284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>220</v>
       </c>
@@ -7865,10 +7295,10 @@
         <v>170</v>
       </c>
       <c r="D225" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F225" s="2">
         <v>2</v>
@@ -7883,7 +7313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>221</v>
       </c>
@@ -7894,10 +7324,10 @@
         <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F226" s="2">
         <v>2</v>
@@ -7912,7 +7342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>222</v>
       </c>
@@ -7923,10 +7353,10 @@
         <v>190</v>
       </c>
       <c r="D227" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F227" s="2">
         <v>2</v>
@@ -7941,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>223</v>
       </c>
@@ -7952,10 +7382,10 @@
         <v>200</v>
       </c>
       <c r="D228" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F228" s="2">
         <v>2</v>
@@ -7970,7 +7400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>224</v>
       </c>
@@ -7981,10 +7411,10 @@
         <v>210</v>
       </c>
       <c r="D229" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F229" s="2">
         <v>2</v>
@@ -7999,7 +7429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>225</v>
       </c>
@@ -8010,10 +7440,10 @@
         <v>220</v>
       </c>
       <c r="D230" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F230" s="2">
         <v>2</v>
@@ -8028,7 +7458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>226</v>
       </c>
@@ -8039,10 +7469,10 @@
         <v>230</v>
       </c>
       <c r="D231" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F231" s="2">
         <v>2</v>
@@ -8057,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>227</v>
       </c>
@@ -8068,10 +7498,10 @@
         <v>240</v>
       </c>
       <c r="D232" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F232" s="2">
         <v>2</v>
@@ -8086,7 +7516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>228</v>
       </c>
@@ -8097,10 +7527,10 @@
         <v>250</v>
       </c>
       <c r="D233" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F233" s="2">
         <v>2</v>
@@ -8115,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>229</v>
       </c>
@@ -8126,10 +7556,10 @@
         <v>260</v>
       </c>
       <c r="D234" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F234" s="2">
         <v>2</v>
@@ -8144,7 +7574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>230</v>
       </c>
@@ -8155,10 +7585,10 @@
         <v>270</v>
       </c>
       <c r="D235" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F235" s="2">
         <v>2</v>
@@ -8173,7 +7603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>231</v>
       </c>
@@ -8184,10 +7614,10 @@
         <v>280</v>
       </c>
       <c r="D236" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F236" s="2">
         <v>2</v>
@@ -8202,7 +7632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>232</v>
       </c>
@@ -8213,10 +7643,10 @@
         <v>290</v>
       </c>
       <c r="D237" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F237" s="2">
         <v>2</v>
@@ -8231,7 +7661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>233</v>
       </c>
@@ -8242,10 +7672,10 @@
         <v>300</v>
       </c>
       <c r="D238" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F238" s="2">
         <v>2</v>
@@ -8260,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>234</v>
       </c>
@@ -8271,10 +7701,10 @@
         <v>310</v>
       </c>
       <c r="D239" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F239" s="2">
         <v>2</v>
@@ -8289,7 +7719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>235</v>
       </c>
@@ -8300,10 +7730,10 @@
         <v>320</v>
       </c>
       <c r="D240" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F240" s="2">
         <v>2</v>
@@ -8318,7 +7748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>236</v>
       </c>
@@ -8326,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F241" s="2">
         <v>3</v>
@@ -8344,7 +7774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>237</v>
       </c>
@@ -8352,10 +7782,10 @@
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F242" s="2">
         <v>3</v>
@@ -8370,7 +7800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>238</v>
       </c>
@@ -8378,10 +7808,10 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F243" s="2">
         <v>3</v>
@@ -8396,7 +7826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>239</v>
       </c>
@@ -8404,10 +7834,10 @@
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F244" s="2">
         <v>3</v>
@@ -8422,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>240</v>
       </c>
@@ -8430,10 +7860,10 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F245" s="2">
         <v>3</v>
@@ -8448,7 +7878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>241</v>
       </c>
@@ -8456,10 +7886,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F246" s="2">
         <v>3</v>
@@ -8474,7 +7904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>242</v>
       </c>
@@ -8482,10 +7912,10 @@
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F247" s="2">
         <v>3</v>
@@ -8500,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>243</v>
       </c>
@@ -8508,10 +7938,10 @@
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F248" s="2">
         <v>3</v>
@@ -8526,7 +7956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>244</v>
       </c>
@@ -8534,10 +7964,10 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F249" s="2">
         <v>3</v>
@@ -8552,7 +7982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>245</v>
       </c>
@@ -8560,10 +7990,10 @@
         <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F250" s="2">
         <v>3</v>
@@ -8579,19 +8009,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D2:H2">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:H5 D1:H1">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5 K1">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>